--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_456.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_456.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d76221-Reviews-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Knights-Inn-Buena-ParkAnaheim.h21263.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_456.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_456.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1296 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r536956451-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>32122</t>
+  </si>
+  <si>
+    <t>76221</t>
+  </si>
+  <si>
+    <t>536956451</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A few minutes walk to Knotts, ten minute walk to Wal-Mart and twenty minutes drive to Huntington beach. Good price, ok breakfast and a small swimming pool. Its another motel and its very basic but its ok for what you pay. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r503261856-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>503261856</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Good and Clean</t>
+  </si>
+  <si>
+    <t>The hotel itself is situated nice and close to Knott's Berry Farm, 2 blocks to walk. We were here for 9 days, made it our base for all our travels around southern California. The Hotel is clean and the a/c works really well, keeps the room almost to cold. It has a pool which is nice on those hot days, only thing with that I had to clean it myself from all the leaves in it. The beds were a little hard to my liking but comfortable enough to get a good nights sleep. It has a fridge and microwave to help save some on eating out all the time. The front desk guy was very nice and helpful. Overall, I would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The hotel itself is situated nice and close to Knott's Berry Farm, 2 blocks to walk. We were here for 9 days, made it our base for all our travels around southern California. The Hotel is clean and the a/c works really well, keeps the room almost to cold. It has a pool which is nice on those hot days, only thing with that I had to clean it myself from all the leaves in it. The beds were a little hard to my liking but comfortable enough to get a good nights sleep. It has a fridge and microwave to help save some on eating out all the time. The front desk guy was very nice and helpful. Overall, I would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r501425969-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>501425969</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Our first visit to California. Today this just happened RIGHT NOW!!! 07/12/17</t>
+  </si>
+  <si>
+    <t>After driving 12 hours from Texas to California. I booked this hotel a week prior to our visit. Will driving there we received a call from the general manager "Sam" he was rude right from the beginning!! However we were already tired and kept the reservation. My best friend and I decided to take our little boys with us. So finally we get to the room and the room smelled like pee and mildew (wet carpet or clothes). We started seeing nats everywhere. And then the room was not clean. The covers had burn holes in them, cut up . Walls had writing all over it, the smoke detector had a plastic bag over it!! Walls had holes all in it!! Nothing was wiped down. So we told the manager and he still didn't change the sheets. Then as we started leaving you see the cleaning lady take the clean towels out the dryer throw them all on the floor. Pick them up one by one and started folding them and putting them into her cart (which I have a VIDEO OF)! Also showed the manager, and he started raising his voice saying it's none of our business. Nothing is any of our business! I told him I will be leaving a review. He got loud and was rude for no reason!!!! Smh NEVER F@@@n AGAIN!!!! Ever!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>After driving 12 hours from Texas to California. I booked this hotel a week prior to our visit. Will driving there we received a call from the general manager "Sam" he was rude right from the beginning!! However we were already tired and kept the reservation. My best friend and I decided to take our little boys with us. So finally we get to the room and the room smelled like pee and mildew (wet carpet or clothes). We started seeing nats everywhere. And then the room was not clean. The covers had burn holes in them, cut up . Walls had writing all over it, the smoke detector had a plastic bag over it!! Walls had holes all in it!! Nothing was wiped down. So we told the manager and he still didn't change the sheets. Then as we started leaving you see the cleaning lady take the clean towels out the dryer throw them all on the floor. Pick them up one by one and started folding them and putting them into her cart (which I have a VIDEO OF)! Also showed the manager, and he started raising his voice saying it's none of our business. Nothing is any of our business! I told him I will be leaving a review. He got loud and was rude for no reason!!!! Smh NEVER F@@@n AGAIN!!!! Ever!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r442117052-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>442117052</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a nice hotel parking is good the staff is really friendly and the rooms are nice. Was pretty quiet without much noise while we stayed there. With this in mind keep in mind it is a motel! The beds are not the comfiest in the world but for the value and the location and the overall quality of our stay it's the best motel I've ever stayed at. I wouldn't spend extra money going to a fancy hotel for a few days if every motel was the same quality as this one! </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r434114703-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>434114703</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>good budget place to stay</t>
+  </si>
+  <si>
+    <t>Place was a good little find.the room did smell though.  and parking could be an issue at times.  The toilet got blocked and when i told the manager about it, they fixed the issue, but he told me how to use a toilet properly... i guess i have been doing it wrong the last 40 years...he was a little rude to me, but when my wife was there, he was friendly to her...the bins outside were changed everyday and the place itself was well maintained.  it was in a good location, near resturants, a good theme park, although we never went, and also some good retail shops.  out of the 5 hotlets that we stayed in while we were on holidays, this was the second worse, but only becuas the others were good.would recommend to other familes becasue it is, overall and good little findMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Place was a good little find.the room did smell though.  and parking could be an issue at times.  The toilet got blocked and when i told the manager about it, they fixed the issue, but he told me how to use a toilet properly... i guess i have been doing it wrong the last 40 years...he was a little rude to me, but when my wife was there, he was friendly to her...the bins outside were changed everyday and the place itself was well maintained.  it was in a good location, near resturants, a good theme park, although we never went, and also some good retail shops.  out of the 5 hotlets that we stayed in while we were on holidays, this was the second worse, but only becuas the others were good.would recommend to other familes becasue it is, overall and good little findMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r423036394-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>423036394</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Close to Knott's/In Buena Park</t>
+  </si>
+  <si>
+    <t>So as a young rollercoaster enthusiast I was here for Knotts, this place is just across the road pretty much from the water park and a block from the main theme park. Buena Park is very nice as an area and this place is easily walkable to all the sights, restaurants and mall etc. The rooms were clean, they let me leave my bag at 6am before I went to Knotts (and it was a large bag!), laundry is being your own powder but is good, people in the area seemed fine, I would say it's 3 stars, not flash, kind of dated in decor but clean and useable. The area is pricey so it's okay value considering. Would recommend for a bed/pop in and out kind of place. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>So as a young rollercoaster enthusiast I was here for Knotts, this place is just across the road pretty much from the water park and a block from the main theme park. Buena Park is very nice as an area and this place is easily walkable to all the sights, restaurants and mall etc. The rooms were clean, they let me leave my bag at 6am before I went to Knotts (and it was a large bag!), laundry is being your own powder but is good, people in the area seemed fine, I would say it's 3 stars, not flash, kind of dated in decor but clean and useable. The area is pricey so it's okay value considering. Would recommend for a bed/pop in and out kind of place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r391899416-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>391899416</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Looks can be deceiving - There profile pic does not say a thousand words</t>
+  </si>
+  <si>
+    <t>Im still trying to figure out why this DUMP is still open, Walking into the room to see filthy carpet was just the beginning so I thought. I removed the stained comforters and threw them on the floors to walk on. At least now the carpet look better. As I proceeded to the molded ceiling bathroom, it was time for me to turn around and exit this room. I don't know how Osha and the California Health Dept. lets this establishment stay open. In the good words of Siskel &amp; Ebert.....2 THUMBS down.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r377770133-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>377770133</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Quite &amp; Quite Comfortable</t>
+  </si>
+  <si>
+    <t>Located in a quite back road of the main Buena Park highway, the Inn was quite comfortable.  It is an old place and needs to be upgraded.  The rooms were not flawless, if anything it was very worn, but we were not in the room for very long.  It was a place to relax during the evening after a full day of adventure.  Located in the middle of several attractions like Knotts Berry Farm, Soak City, Downtown Buena Park Mall, Wal-Mart, Neighborhood Wal-Mart, and Target.  Also enjoy some of the restaurants within the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>KNIGHTSINNBUENAPARK, Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Located in a quite back road of the main Buena Park highway, the Inn was quite comfortable.  It is an old place and needs to be upgraded.  The rooms were not flawless, if anything it was very worn, but we were not in the room for very long.  It was a place to relax during the evening after a full day of adventure.  Located in the middle of several attractions like Knotts Berry Farm, Soak City, Downtown Buena Park Mall, Wal-Mart, Neighborhood Wal-Mart, and Target.  Also enjoy some of the restaurants within the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r342647961-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>342647961</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights here. It is a 10 minute walk to Knott's Berry Farm (5 minutes to their parking lot). They had a room that had 3 queens beds so our family of 6 could stay in 1 room. Nothing fancy. Nothing bad either. Pretty uneventful stay. I would for sure stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>KNIGHTSINNBUENAPARK, General Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights here. It is a 10 minute walk to Knott's Berry Farm (5 minutes to their parking lot). They had a room that had 3 queens beds so our family of 6 could stay in 1 room. Nothing fancy. Nothing bad either. Pretty uneventful stay. I would for sure stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r309101598-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>309101598</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Traveler With Dog</t>
+  </si>
+  <si>
+    <t>No dog this time, but a very accommodating staff. Not sure why this place is rated three star, but it might be for the thick towels, micro, fridge in the room. Plus, they recommend not buying the Knots Berry Farm parking pass and simply walking the ten minutes to get in. All in all, I would stay there again as there is plenty nearby to do and see.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r286464216-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>286464216</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>The price is good, but that is about it.</t>
+  </si>
+  <si>
+    <t>The area is nice, seems safe enough, which can be hard for low cost hotels in LA area. But that is about where the good stops. While there were no bugs in our room at least, the beds are uncomfortable, the shower had mildew and broken plumbing, the smell was musty, the electrical is DANGEROUS (ran form the lamps hanging on the wall behind the wall then plugged in to old outlets) and we had 3 outlets spark or quit working on us! I was afraid to use the microwave because the ground part of the plug had been cut off, and the refrigerator froze everything, both in and out of the freezer area. For a Wyndham property, I expected much better than what I got. When I asked for extra wash clothes for our room, they kept trying to give me towels, as if they had no idea what a wash cloth was! 5 times!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The area is nice, seems safe enough, which can be hard for low cost hotels in LA area. But that is about where the good stops. While there were no bugs in our room at least, the beds are uncomfortable, the shower had mildew and broken plumbing, the smell was musty, the electrical is DANGEROUS (ran form the lamps hanging on the wall behind the wall then plugged in to old outlets) and we had 3 outlets spark or quit working on us! I was afraid to use the microwave because the ground part of the plug had been cut off, and the refrigerator froze everything, both in and out of the freezer area. For a Wyndham property, I expected much better than what I got. When I asked for extra wash clothes for our room, they kept trying to give me towels, as if they had no idea what a wash cloth was! 5 times!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r280516488-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>280516488</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Never Again and Lesson Learned</t>
+  </si>
+  <si>
+    <t>This stay taught me the value in sticking to known chains, pictures can be very deceiving.  Half a step up from sleeping in the car.  I don't believe they vacuume. Found a huge tuft of hair on the floor by the trash can. Ad claimed they had a pool.  The pool was not working, they said the pump had gone out that morning.  There was a padlock on it and no card read - obviously not open in a long time.  Old, dirty and our room key didn't work.  After 4 trips to the front desk, they finally gave us the pass key to all of the rooms so that we could get our 4 and 5 year old grandsons into the room after all day and night at Knotts.  Use La Quinta or Holiday Inn, not worth the savings.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This stay taught me the value in sticking to known chains, pictures can be very deceiving.  Half a step up from sleeping in the car.  I don't believe they vacuume. Found a huge tuft of hair on the floor by the trash can. Ad claimed they had a pool.  The pool was not working, they said the pump had gone out that morning.  There was a padlock on it and no card read - obviously not open in a long time.  Old, dirty and our room key didn't work.  After 4 trips to the front desk, they finally gave us the pass key to all of the rooms so that we could get our 4 and 5 year old grandsons into the room after all day and night at Knotts.  Use La Quinta or Holiday Inn, not worth the savings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r267806747-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>267806747</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Loyalty First!</t>
+  </si>
+  <si>
+    <t>This is a very reasonable place with responsible management! I must say, I totally feel safe here!, unlike other hotels I've stayed at. Compared to the previous management I totally feel that the present management is doing a super job at keeping the riff Raff out and the over all cleanliness is 100% better!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r262354489-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>262354489</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>First impressions can be deceiving!</t>
+  </si>
+  <si>
+    <t>Well first and foremost, I want to be brutally honest....  Pulling up to the property, it looked tidy enough, the clerk at the front desk let me check in a couple of hours early so of course that made me happy and I asked for an upper level room because I LOATHE the sound of stomping above me!  So he gave me room #221, the very end room on the top facing the parking lot.  There is no elevator, which is okay....but as I headed to the staircase i was a little taken aback by the condition of the walkways and staircase!  It was filthy!  It could really use some power washing!  The room itself was small, dingy, dark, one double bed, everything super OLD!  I was a little mortified but I had to remind myself that I booked it for 3 days at $32/night on Priceline, which is quite a deal for ANY hotel!
+So I did what I first do at any hotel, cranked the AC on high to air it out!  The AC worked GREAT!  After turning on all the lights on further inspection the room was tidy and clean...yes things were old, was there mold?  Most likely...the only thing that I did find pretty gross was the carpet...I would recommend wearing BLACK socks or shoes on the carpet because it WAS gnarly!
+I had plans all three evenings that I was staying there, when I checked...Well first and foremost, I want to be brutally honest....  Pulling up to the property, it looked tidy enough, the clerk at the front desk let me check in a couple of hours early so of course that made me happy and I asked for an upper level room because I LOATHE the sound of stomping above me!  So he gave me room #221, the very end room on the top facing the parking lot.  There is no elevator, which is okay....but as I headed to the staircase i was a little taken aback by the condition of the walkways and staircase!  It was filthy!  It could really use some power washing!  The room itself was small, dingy, dark, one double bed, everything super OLD!  I was a little mortified but I had to remind myself that I booked it for 3 days at $32/night on Priceline, which is quite a deal for ANY hotel!So I did what I first do at any hotel, cranked the AC on high to air it out!  The AC worked GREAT!  After turning on all the lights on further inspection the room was tidy and clean...yes things were old, was there mold?  Most likely...the only thing that I did find pretty gross was the carpet...I would recommend wearing BLACK socks or shoes on the carpet because it WAS gnarly!I had plans all three evenings that I was staying there, when I checked in the parking lot was empty but when I came back it was packed!  Thank goodness there was a couple of empty spots!  With so many people, I was worried that there would be a high noise level.  I ALWAYS travel with a box fan when driving, because it is impossible for me to sleep without a fan!  With the fan, I was pleasantly surprised on how quiet it was!  I feel like the walls in this motel are pretty thick because it was a full house and i could hear NOTHING!  Of course I did have the AC and a box fan going, but in most motels, even with the added noise, I can STILL hear outside noise!  But it was very peaceful!NO free breakfast, but there is hot coffee and tea in the office....not the best coffee but better than nothing!  Right down the street is a Neighborhood Walmart store...perfect for any of your food, medicine and miscellaneous needs...there is plenty of fast food places as well.My daughter was cheering at a cheer comp at the Anaheim Convention Center, the Knight's Inn is quite a hike from the convention center but totally easy, just 2 streets...LONG streets but only 2 streets to deal with!  And NO screaming cheerleaders!  I don't know if I would recommend this hotel to your average Disneyland visitor, I think they would be disappointed by the distance away from Disney but it is very close to Knott's Berry Farm and Medieval Times.I personally would stay here again...the good outweighed the bad!  Once you get past the room and realize how peaceful it is and that the only reason you are in the room is to sleep, you should be fine!  Plus it had a microwave and fridge.  The pool did not look very inviting, I did not swim...it looked clean, just TINY!  Old TV but LOTS of channels!  I couldn't get over how many channels were available!  Oh and even though I did bring my own blankets and pillows, I did pull the bedding back and I did NOT see any evidence of bedbugs, so that was a relief! So if you get this at a great deal and older furnishings aren't a big deal, then go for it, but don't expect the Ritz!  Just a quiet place to lay your head!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Well first and foremost, I want to be brutally honest....  Pulling up to the property, it looked tidy enough, the clerk at the front desk let me check in a couple of hours early so of course that made me happy and I asked for an upper level room because I LOATHE the sound of stomping above me!  So he gave me room #221, the very end room on the top facing the parking lot.  There is no elevator, which is okay....but as I headed to the staircase i was a little taken aback by the condition of the walkways and staircase!  It was filthy!  It could really use some power washing!  The room itself was small, dingy, dark, one double bed, everything super OLD!  I was a little mortified but I had to remind myself that I booked it for 3 days at $32/night on Priceline, which is quite a deal for ANY hotel!
+So I did what I first do at any hotel, cranked the AC on high to air it out!  The AC worked GREAT!  After turning on all the lights on further inspection the room was tidy and clean...yes things were old, was there mold?  Most likely...the only thing that I did find pretty gross was the carpet...I would recommend wearing BLACK socks or shoes on the carpet because it WAS gnarly!
+I had plans all three evenings that I was staying there, when I checked...Well first and foremost, I want to be brutally honest....  Pulling up to the property, it looked tidy enough, the clerk at the front desk let me check in a couple of hours early so of course that made me happy and I asked for an upper level room because I LOATHE the sound of stomping above me!  So he gave me room #221, the very end room on the top facing the parking lot.  There is no elevator, which is okay....but as I headed to the staircase i was a little taken aback by the condition of the walkways and staircase!  It was filthy!  It could really use some power washing!  The room itself was small, dingy, dark, one double bed, everything super OLD!  I was a little mortified but I had to remind myself that I booked it for 3 days at $32/night on Priceline, which is quite a deal for ANY hotel!So I did what I first do at any hotel, cranked the AC on high to air it out!  The AC worked GREAT!  After turning on all the lights on further inspection the room was tidy and clean...yes things were old, was there mold?  Most likely...the only thing that I did find pretty gross was the carpet...I would recommend wearing BLACK socks or shoes on the carpet because it WAS gnarly!I had plans all three evenings that I was staying there, when I checked in the parking lot was empty but when I came back it was packed!  Thank goodness there was a couple of empty spots!  With so many people, I was worried that there would be a high noise level.  I ALWAYS travel with a box fan when driving, because it is impossible for me to sleep without a fan!  With the fan, I was pleasantly surprised on how quiet it was!  I feel like the walls in this motel are pretty thick because it was a full house and i could hear NOTHING!  Of course I did have the AC and a box fan going, but in most motels, even with the added noise, I can STILL hear outside noise!  But it was very peaceful!NO free breakfast, but there is hot coffee and tea in the office....not the best coffee but better than nothing!  Right down the street is a Neighborhood Walmart store...perfect for any of your food, medicine and miscellaneous needs...there is plenty of fast food places as well.My daughter was cheering at a cheer comp at the Anaheim Convention Center, the Knight's Inn is quite a hike from the convention center but totally easy, just 2 streets...LONG streets but only 2 streets to deal with!  And NO screaming cheerleaders!  I don't know if I would recommend this hotel to your average Disneyland visitor, I think they would be disappointed by the distance away from Disney but it is very close to Knott's Berry Farm and Medieval Times.I personally would stay here again...the good outweighed the bad!  Once you get past the room and realize how peaceful it is and that the only reason you are in the room is to sleep, you should be fine!  Plus it had a microwave and fridge.  The pool did not look very inviting, I did not swim...it looked clean, just TINY!  Old TV but LOTS of channels!  I couldn't get over how many channels were available!  Oh and even though I did bring my own blankets and pillows, I did pull the bedding back and I did NOT see any evidence of bedbugs, so that was a relief! So if you get this at a great deal and older furnishings aren't a big deal, then go for it, but don't expect the Ritz!  Just a quiet place to lay your head!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r259144454-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>259144454</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>TERRIBLE!!!!</t>
+  </si>
+  <si>
+    <t>This place was dark, creepy and EXTREMLEY DIRTY! We booked online and when we got there decided to look at the room before we got anything out of the car and glad we did. Holes in walls, DIRTY furniture with stains on furniture and carpet. Then pulled covers back on the bed and there were 3 bugs in the bed. We ask to cancel and get a refund. That was a BATTLE!! Oh outside lights weren't on and only one light in the room worked. JUST DONT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r247906553-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>247906553</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Underloved</t>
+  </si>
+  <si>
+    <t>The good:  cheap hotel a quick drive from Disneyland, nice people at the front desk.The bad:  Enough was wrong with the room that I was convinced it wouldn't make a difference if I complained.  No cold water in the sink.  Missing dial on heater.  Dim light.  (New) bolt on door wouldn't lock or unlock unless I pushed my entire (155 lbs) weight against it.  My 11 year old wouldn't have been capable of escape by himself.    Fairly uncomfortable bed, but acceptable I guess.  We were in room 102.  The room was sweltering when we entered; I had to ask the front desk to come and change the heat because it was too difficult for me to do without the handle, especially with a little arthritis.  He took out a pair of pliers and adjusted the heat, like this was normal.  I guess they don't trust the guests to do this themselves.  I mentioned the water problem on the way out, perhaps they'll fix it.  We will avoid this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The good:  cheap hotel a quick drive from Disneyland, nice people at the front desk.The bad:  Enough was wrong with the room that I was convinced it wouldn't make a difference if I complained.  No cold water in the sink.  Missing dial on heater.  Dim light.  (New) bolt on door wouldn't lock or unlock unless I pushed my entire (155 lbs) weight against it.  My 11 year old wouldn't have been capable of escape by himself.    Fairly uncomfortable bed, but acceptable I guess.  We were in room 102.  The room was sweltering when we entered; I had to ask the front desk to come and change the heat because it was too difficult for me to do without the handle, especially with a little arthritis.  He took out a pair of pliers and adjusted the heat, like this was normal.  I guess they don't trust the guests to do this themselves.  I mentioned the water problem on the way out, perhaps they'll fix it.  We will avoid this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r235555412-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>235555412</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>If given the option of this place or nothing...I'd choose nothing...</t>
+  </si>
+  <si>
+    <t>Although in a fairly good location close to Knott's, Disneyland and other things, I wouldn't ever stay here again. 
+Upon arriving, the woman at the front desk had an attitude about her. She just seemed to be very annoyed that she even had to be there. 
+Then there is the room...completely disgusting. The first thing I noticed was an obscene word carved into outside of the room's door. How wonderful. Then upon opening the door, the first thing you almost run into is the fridge and microwave. They're wedged in a space between the bed, window and door when there was clearly other space in the room to place them. Also the drapes were hanging down and touching all the coiling and electric elements of the fridge. That was just SCREAMING fire hazard to me. There is also no security lock or deadbolt on the door.
+The beds were HORRIBLY uncomfortable. They feel like just some springs covered with cloth just for the sake of covering the springs. 
+The towels...well I could have dried off with coarse sand paper and that would have felt softer, I'm sure. I don't know where they get these towels but you can do some serious damage with them if you accidentally rub too hard. 
+Oh, the shower...BLACK MOLD on the ceiling of the shower. I couldn't handle it so if I had to use the restroom or anything I actually left the property to...Although in a fairly good location close to Knott's, Disneyland and other things, I wouldn't ever stay here again. Upon arriving, the woman at the front desk had an attitude about her. She just seemed to be very annoyed that she even had to be there. Then there is the room...completely disgusting. The first thing I noticed was an obscene word carved into outside of the room's door. How wonderful. Then upon opening the door, the first thing you almost run into is the fridge and microwave. They're wedged in a space between the bed, window and door when there was clearly other space in the room to place them. Also the drapes were hanging down and touching all the coiling and electric elements of the fridge. That was just SCREAMING fire hazard to me. There is also no security lock or deadbolt on the door.The beds were HORRIBLY uncomfortable. They feel like just some springs covered with cloth just for the sake of covering the springs. The towels...well I could have dried off with coarse sand paper and that would have felt softer, I'm sure. I don't know where they get these towels but you can do some serious damage with them if you accidentally rub too hard. Oh, the shower...BLACK MOLD on the ceiling of the shower. I couldn't handle it so if I had to use the restroom or anything I actually left the property to do so. The electric outlets also all had issues where the plugs wouldn't stay in the walls and would fall out. But that didn't stop the property from still using them to plug things in. Oh no. They did it anyway and just let the plugs droop half way out and that was that. I mentioned it to the front desk (only after the guy took a few minutes to stop talking on his cell phone and acknowledge me) and I was only offered an extension cord!!!There were also what seemed to be knife stab holes coming through to the inside of the bathroom. Not sure what happened here but at this point I don't even want to know. I just want to leave. They have it listed that this property is under construction but I think they say that so you don't get upset upon arriving to a trashy hotel...but there was no construction going on whatsoever. They also don't have breakfast of any sort. If you value your health, safety and comfort, please, do yourself a favor and look for a room elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Although in a fairly good location close to Knott's, Disneyland and other things, I wouldn't ever stay here again. 
+Upon arriving, the woman at the front desk had an attitude about her. She just seemed to be very annoyed that she even had to be there. 
+Then there is the room...completely disgusting. The first thing I noticed was an obscene word carved into outside of the room's door. How wonderful. Then upon opening the door, the first thing you almost run into is the fridge and microwave. They're wedged in a space between the bed, window and door when there was clearly other space in the room to place them. Also the drapes were hanging down and touching all the coiling and electric elements of the fridge. That was just SCREAMING fire hazard to me. There is also no security lock or deadbolt on the door.
+The beds were HORRIBLY uncomfortable. They feel like just some springs covered with cloth just for the sake of covering the springs. 
+The towels...well I could have dried off with coarse sand paper and that would have felt softer, I'm sure. I don't know where they get these towels but you can do some serious damage with them if you accidentally rub too hard. 
+Oh, the shower...BLACK MOLD on the ceiling of the shower. I couldn't handle it so if I had to use the restroom or anything I actually left the property to...Although in a fairly good location close to Knott's, Disneyland and other things, I wouldn't ever stay here again. Upon arriving, the woman at the front desk had an attitude about her. She just seemed to be very annoyed that she even had to be there. Then there is the room...completely disgusting. The first thing I noticed was an obscene word carved into outside of the room's door. How wonderful. Then upon opening the door, the first thing you almost run into is the fridge and microwave. They're wedged in a space between the bed, window and door when there was clearly other space in the room to place them. Also the drapes were hanging down and touching all the coiling and electric elements of the fridge. That was just SCREAMING fire hazard to me. There is also no security lock or deadbolt on the door.The beds were HORRIBLY uncomfortable. They feel like just some springs covered with cloth just for the sake of covering the springs. The towels...well I could have dried off with coarse sand paper and that would have felt softer, I'm sure. I don't know where they get these towels but you can do some serious damage with them if you accidentally rub too hard. Oh, the shower...BLACK MOLD on the ceiling of the shower. I couldn't handle it so if I had to use the restroom or anything I actually left the property to do so. The electric outlets also all had issues where the plugs wouldn't stay in the walls and would fall out. But that didn't stop the property from still using them to plug things in. Oh no. They did it anyway and just let the plugs droop half way out and that was that. I mentioned it to the front desk (only after the guy took a few minutes to stop talking on his cell phone and acknowledge me) and I was only offered an extension cord!!!There were also what seemed to be knife stab holes coming through to the inside of the bathroom. Not sure what happened here but at this point I don't even want to know. I just want to leave. They have it listed that this property is under construction but I think they say that so you don't get upset upon arriving to a trashy hotel...but there was no construction going on whatsoever. They also don't have breakfast of any sort. If you value your health, safety and comfort, please, do yourself a favor and look for a room elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r234640511-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>234640511</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Its too bad</t>
+  </si>
+  <si>
+    <t>The location is good, the bed was comfortable, and the staff was very helpful, so its too bad the maintenance is so bad.  My toilet seat was broken, and so was the drain stopper in the bath tub.  There must have been a short in the dressing area light switch, because it came on when it wanted to, rather than when I hit the switch.  I am surprised that the management is not aware of these issues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r234417598-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>234417598</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Very Dirty Hotel</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel. It is a good price but very poorly maintained. The shower curtains, sheets and towels had stains and were torn. The room was murky and dirty and there was a horrible smell. The TV did not work at all. There was no parking available. I would not recommend this to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r234041069-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>234041069</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r233997731-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>233997731</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r231088878-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>231088878</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Better Than Expected</t>
+  </si>
+  <si>
+    <t>Got a great deal on Priceline. Wanted a close stay to Knotts Berry Farm and you can't get closer than this. Able to park at the motel and walk across to Knotts.  Real basic and could use a remodel but had a quiet clean room with a working TV and a good hot shower with good water pressure. Very helpful front desk staff. This is where I'm staying for any future Buena Park amusement parks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r229328655-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>229328655</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r228540049-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>228540049</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r224925993-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>224925993</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r223235480-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>223235480</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>cheap clean &amp; quiet</t>
+  </si>
+  <si>
+    <t>I was happy even though it was on the cheaper side for the area it was nice and clean and bigger than expected</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r221819017-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>221819017</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r216501427-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>216501427</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r215966170-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>215966170</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r215623326-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>215623326</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r213973724-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>213973724</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r213559117-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>213559117</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r212947836-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>212947836</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r211230627-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>211230627</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r209481386-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>209481386</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r208725853-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>208725853</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We decided to stay the night at this hotel because it was so close to Knott's Berry Farm, Medieval Times, Pirate's Dinner Adventure etc. The hotel room was large, clean, and in such a great location. The staff was helpful. The prices for the hotel room were fantastic considering it's location. Also, right up the road was a Starbucks so I was content! I would stay again because of the great price and location of the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r207805657-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>207805657</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r205850390-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>205850390</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r205449652-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>205449652</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Icky Hotel, Not Big on Safety or Comfort</t>
+  </si>
+  <si>
+    <t>The hotel's website seemed okay, the pictures were nice and it claimed to have a pool. Upon arriving from LAX on May 7, 2014 though I was sadly disappointed. The trouble first started with the front desk, who rudely insisted I had not paid up yet (although I had proof in my hands that I had pre-paid for my flight, hotel and rental car thanks to Southwest Vacations). They demanded my credit card, so I was forced to pay an additional $200 (it was later refunded after the manager found that I DID in fact pay, which the front desk agent refused to look for at first). Then we got to the room. It was dark, dingy, and the lock didn't even work. We had to sleep with a chair wedged up against the door, and even that was not enough to make us feel safe. Random room keys were left on our table twice too. At night some rowdy teens were hanging out in the parking lot, sitting on rental cars, being a general nuisance and clearly violating the noise curfew. However, the hotel's attempt to stop them was pitiful. He simply said "Go home" to which the teens just laughed and carried on like he wasn't there. He didn't call the police or even force the issue, which led to barely any sleep. I am never staying here again. It may be affordable, but I will gladly pay...The hotel's website seemed okay, the pictures were nice and it claimed to have a pool. Upon arriving from LAX on May 7, 2014 though I was sadly disappointed. The trouble first started with the front desk, who rudely insisted I had not paid up yet (although I had proof in my hands that I had pre-paid for my flight, hotel and rental car thanks to Southwest Vacations). They demanded my credit card, so I was forced to pay an additional $200 (it was later refunded after the manager found that I DID in fact pay, which the front desk agent refused to look for at first). Then we got to the room. It was dark, dingy, and the lock didn't even work. We had to sleep with a chair wedged up against the door, and even that was not enough to make us feel safe. Random room keys were left on our table twice too. At night some rowdy teens were hanging out in the parking lot, sitting on rental cars, being a general nuisance and clearly violating the noise curfew. However, the hotel's attempt to stop them was pitiful. He simply said "Go home" to which the teens just laughed and carried on like he wasn't there. He didn't call the police or even force the issue, which led to barely any sleep. I am never staying here again. It may be affordable, but I will gladly pay extra for a cleaner, nicer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel's website seemed okay, the pictures were nice and it claimed to have a pool. Upon arriving from LAX on May 7, 2014 though I was sadly disappointed. The trouble first started with the front desk, who rudely insisted I had not paid up yet (although I had proof in my hands that I had pre-paid for my flight, hotel and rental car thanks to Southwest Vacations). They demanded my credit card, so I was forced to pay an additional $200 (it was later refunded after the manager found that I DID in fact pay, which the front desk agent refused to look for at first). Then we got to the room. It was dark, dingy, and the lock didn't even work. We had to sleep with a chair wedged up against the door, and even that was not enough to make us feel safe. Random room keys were left on our table twice too. At night some rowdy teens were hanging out in the parking lot, sitting on rental cars, being a general nuisance and clearly violating the noise curfew. However, the hotel's attempt to stop them was pitiful. He simply said "Go home" to which the teens just laughed and carried on like he wasn't there. He didn't call the police or even force the issue, which led to barely any sleep. I am never staying here again. It may be affordable, but I will gladly pay...The hotel's website seemed okay, the pictures were nice and it claimed to have a pool. Upon arriving from LAX on May 7, 2014 though I was sadly disappointed. The trouble first started with the front desk, who rudely insisted I had not paid up yet (although I had proof in my hands that I had pre-paid for my flight, hotel and rental car thanks to Southwest Vacations). They demanded my credit card, so I was forced to pay an additional $200 (it was later refunded after the manager found that I DID in fact pay, which the front desk agent refused to look for at first). Then we got to the room. It was dark, dingy, and the lock didn't even work. We had to sleep with a chair wedged up against the door, and even that was not enough to make us feel safe. Random room keys were left on our table twice too. At night some rowdy teens were hanging out in the parking lot, sitting on rental cars, being a general nuisance and clearly violating the noise curfew. However, the hotel's attempt to stop them was pitiful. He simply said "Go home" to which the teens just laughed and carried on like he wasn't there. He didn't call the police or even force the issue, which led to barely any sleep. I am never staying here again. It may be affordable, but I will gladly pay extra for a cleaner, nicer hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r199202766-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>199202766</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>great deal</t>
+  </si>
+  <si>
+    <t>This hotel is right across the street from Knott's Berry Farm.  Prices are reasonable, rooms are clean, access is easy.  Great deal!  You don't hear any traffic.  You don't hear anyone in the next room to yours either.  I'd stay here again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r198854349-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>198854349</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r198023593-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>198023593</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Decent place to stay for Disney trip</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights for a disneyland trip in a 2 queen bedroom. Room was clean with a TV, microwave and mini fridge. However, the room was a little cramped around the table/fridge area for 3 people. There was also no clock that's usually provided on the nightstand but we didn't mind. I was woken up one of the nights at almost 3am to the sound of some serious yelling and arguing between what sounded like drunk men and noisy speeding cars (there is a hookah lounge across the street.) That would probably be my only complaint of our stay here. Other than that, the drive to disneyland is not bad at all and it's worth the stay if you are not high maintenance and on a budget. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights for a disneyland trip in a 2 queen bedroom. Room was clean with a TV, microwave and mini fridge. However, the room was a little cramped around the table/fridge area for 3 people. There was also no clock that's usually provided on the nightstand but we didn't mind. I was woken up one of the nights at almost 3am to the sound of some serious yelling and arguing between what sounded like drunk men and noisy speeding cars (there is a hookah lounge across the street.) That would probably be my only complaint of our stay here. Other than that, the drive to disneyland is not bad at all and it's worth the stay if you are not high maintenance and on a budget. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r182891432-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>182891432</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>clean quiet close to Knotts and worth the price</t>
+  </si>
+  <si>
+    <t>We stayed in the family suite the Friday before Halloween.  Walking distance to Knotts Berry Farms.  Suite had 3 beds in two rooms separated by a wall not a door. Gave plenty of privacy. Clean linen and very comfortable beds.  Small fridge in the room.  Friday night was $120 plus $5 for parking. The charge for the parking was the only negative, but otherwise a nice stay. Staff was friendly.  No breakfast in the morning, but nice hot coffee.  We will be going back for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Harshal P, Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded March 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in the family suite the Friday before Halloween.  Walking distance to Knotts Berry Farms.  Suite had 3 beds in two rooms separated by a wall not a door. Gave plenty of privacy. Clean linen and very comfortable beds.  Small fridge in the room.  Friday night was $120 plus $5 for parking. The charge for the parking was the only negative, but otherwise a nice stay. Staff was friendly.  No breakfast in the morning, but nice hot coffee.  We will be going back for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r178735730-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>178735730</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Clean room, lots of space, micro and fridge (good value)</t>
+  </si>
+  <si>
+    <t>We stayed here for a little over a week in September. The room was clean, it wasn't cramped, it had a fridge, and a microwave. There were three of us (all adults), we found it to be comfortable. We did not spend much time in the room except for at night, its within 8 minutes of Disney, within 20 minutes of several beaches, almost right next to medieval times dinner... all in all we would stay here again. I did not care for their pool (its very tiny), but we never used it anyway in favor of the beach. Great value for someplace to sleep while enjoying a vacation in California.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for a little over a week in September. The room was clean, it wasn't cramped, it had a fridge, and a microwave. There were three of us (all adults), we found it to be comfortable. We did not spend much time in the room except for at night, its within 8 minutes of Disney, within 20 minutes of several beaches, almost right next to medieval times dinner... all in all we would stay here again. I did not care for their pool (its very tiny), but we never used it anyway in favor of the beach. Great value for someplace to sleep while enjoying a vacation in California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r173150232-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>173150232</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Rude Night Attendant! and Mold?</t>
+  </si>
+  <si>
+    <t>I certainly don't like to pick this hotel because every time we checked in at night for this hotel the night auditor/attendant is very rude and insanely not fit for hospitality industry. Priceline bidding end up to this disgusting hotel although its cheap, I would pay a little extra to be treated right. He was mad because there will be 2 adults and whatsoever so when my husband drop me off to go to the room and head out to walmart he stands in the middle of the street and wouldn't move as if he owns the freaking country. We have stayed here about 6x now and I can't go back there anymore. Im scared for that guy, very rude, creepy and suspicious. Plus internet sucks all the time and best of all there was a MOLD in our bathroom. We found out later on Sunday before checking out and that explains to our eye infection and bugs in bed too...Don't stay here. I always travel and always give benefit of a doubt and try to see if reviews are wrong...this one top the worst hotel awardMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Tania T, Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded August 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2013</t>
+  </si>
+  <si>
+    <t>I certainly don't like to pick this hotel because every time we checked in at night for this hotel the night auditor/attendant is very rude and insanely not fit for hospitality industry. Priceline bidding end up to this disgusting hotel although its cheap, I would pay a little extra to be treated right. He was mad because there will be 2 adults and whatsoever so when my husband drop me off to go to the room and head out to walmart he stands in the middle of the street and wouldn't move as if he owns the freaking country. We have stayed here about 6x now and I can't go back there anymore. Im scared for that guy, very rude, creepy and suspicious. Plus internet sucks all the time and best of all there was a MOLD in our bathroom. We found out later on Sunday before checking out and that explains to our eye infection and bugs in bed too...Don't stay here. I always travel and always give benefit of a doubt and try to see if reviews are wrong...this one top the worst hotel awardMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r164102722-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>164102722</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>return to the same motel we always stay at in buena park</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 nights as we always do been staying here about 10 years now and the manager Tania is lovely she always makes us welcome and I find the room rate excellent for the area its in. Its very close to knots berry farm so you don't need to take your car you just walk across the road about 5 minutes walk it costs $15 to park your car so you are on a winner if you walk. Also very handy for all other entertainments in Buena Park I wouldn't stay anywhere else for the money you wont beat this place. The rooms are nice nothing flash but real comfortable and its quiet. I will definitely keep coming back to Knights in on Stanton you also get a free coffee service and continental breakfast although we don't have it as we love to have a fully cooked breakfast at dennysMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Tania T, General Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 nights as we always do been staying here about 10 years now and the manager Tania is lovely she always makes us welcome and I find the room rate excellent for the area its in. Its very close to knots berry farm so you don't need to take your car you just walk across the road about 5 minutes walk it costs $15 to park your car so you are on a winner if you walk. Also very handy for all other entertainments in Buena Park I wouldn't stay anywhere else for the money you wont beat this place. The rooms are nice nothing flash but real comfortable and its quiet. I will definitely keep coming back to Knights in on Stanton you also get a free coffee service and continental breakfast although we don't have it as we love to have a fully cooked breakfast at dennysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r162694654-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>162694654</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>The absolute worst experience of my life.</t>
+  </si>
+  <si>
+    <t>this hotel is probably the worst hotel I stayed at. first off you have to pay for parking there is not enough available spaces for your car then the front desk clerk will ask you to park on the road or empty lot behind the hotel.  They said they can't guarantee that your car will be safe. If your car gets damaged in the parking lot they will not pay for any damages. Refuses to accomadate guests. The clerk was rude and dissresptful. Don't ever go to this place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r158625131-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>158625131</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>BUGS and no refund. Do not use HOTWIRE!!!</t>
+  </si>
+  <si>
+    <t>Booked a room (RM#122) from Hotwire for 4/20/13. Bad mistake.
+My wife and I got into our room late after spending the day at Disneyland and there were small bugs everywhere. On the beds, on the floor, and all over the bathroom. It was a no brainer, we left so fast. We could not take the bugs crawling on us and everything in there. Told the manager at the front desk and he didn't seem to care much and he also did not offer us a different room so we left to stay at a hotel down the street that we had stayed in the week before. 
+Tried to call Hotwire to receive a refund a couple days later after our vacation because the manager said he couldn't help me with that at the hotel because we booked through a 3rd party. Hotwire called the hotel and the hotel said that we had stayed in the room all night and reported nothing about bugs. Lies!!! Hotwire said they would not give me a refund because they could not confirm what the condition of the room was. I asked them how am I suppose to prove there were bugs and unfit conditions. I don't have controls to put notes in the hotels system. I told Hotwire customer service that I had a receipt for the time we left and duration of stay but that didn't matter to them because it couldn't...Booked a room (RM#122) from Hotwire for 4/20/13. Bad mistake.My wife and I got into our room late after spending the day at Disneyland and there were small bugs everywhere. On the beds, on the floor, and all over the bathroom. It was a no brainer, we left so fast. We could not take the bugs crawling on us and everything in there. Told the manager at the front desk and he didn't seem to care much and he also did not offer us a different room so we left to stay at a hotel down the street that we had stayed in the week before. Tried to call Hotwire to receive a refund a couple days later after our vacation because the manager said he couldn't help me with that at the hotel because we booked through a 3rd party. Hotwire called the hotel and the hotel said that we had stayed in the room all night and reported nothing about bugs. Lies!!! Hotwire said they would not give me a refund because they could not confirm what the condition of the room was. I asked them how am I suppose to prove there were bugs and unfit conditions. I don't have controls to put notes in the hotels system. I told Hotwire customer service that I had a receipt for the time we left and duration of stay but that didn't matter to them because it couldn't prove anything. I'm not one to write reviews or complain but I had to tell people about this one. Hotwire is a dishonest company and I will never use them again. I hope this helps everyone out there looking for a place to stay or what companies to trust.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Tania T, Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Booked a room (RM#122) from Hotwire for 4/20/13. Bad mistake.
+My wife and I got into our room late after spending the day at Disneyland and there were small bugs everywhere. On the beds, on the floor, and all over the bathroom. It was a no brainer, we left so fast. We could not take the bugs crawling on us and everything in there. Told the manager at the front desk and he didn't seem to care much and he also did not offer us a different room so we left to stay at a hotel down the street that we had stayed in the week before. 
+Tried to call Hotwire to receive a refund a couple days later after our vacation because the manager said he couldn't help me with that at the hotel because we booked through a 3rd party. Hotwire called the hotel and the hotel said that we had stayed in the room all night and reported nothing about bugs. Lies!!! Hotwire said they would not give me a refund because they could not confirm what the condition of the room was. I asked them how am I suppose to prove there were bugs and unfit conditions. I don't have controls to put notes in the hotels system. I told Hotwire customer service that I had a receipt for the time we left and duration of stay but that didn't matter to them because it couldn't...Booked a room (RM#122) from Hotwire for 4/20/13. Bad mistake.My wife and I got into our room late after spending the day at Disneyland and there were small bugs everywhere. On the beds, on the floor, and all over the bathroom. It was a no brainer, we left so fast. We could not take the bugs crawling on us and everything in there. Told the manager at the front desk and he didn't seem to care much and he also did not offer us a different room so we left to stay at a hotel down the street that we had stayed in the week before. Tried to call Hotwire to receive a refund a couple days later after our vacation because the manager said he couldn't help me with that at the hotel because we booked through a 3rd party. Hotwire called the hotel and the hotel said that we had stayed in the room all night and reported nothing about bugs. Lies!!! Hotwire said they would not give me a refund because they could not confirm what the condition of the room was. I asked them how am I suppose to prove there were bugs and unfit conditions. I don't have controls to put notes in the hotels system. I told Hotwire customer service that I had a receipt for the time we left and duration of stay but that didn't matter to them because it couldn't prove anything. I'm not one to write reviews or complain but I had to tell people about this one. Hotwire is a dishonest company and I will never use them again. I hope this helps everyone out there looking for a place to stay or what companies to trust.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r155856488-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>155856488</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Hidden extras</t>
+  </si>
+  <si>
+    <t>To start you get the enjoyment of paying an extra $5 fee per day for your car or it will get towed. Then you get to pay $6 hotel fee? Then in the room you get extra friends to stay with you in the bed on the carpet and the walls. Then when you ask for more towels or should i say rags they want to charge extra for them. It was close to the park but you get to see working girls getting extra cash in the parkinglot on the way to the park. Also we had to change rooms the first one had the door to the fridge and the plug came out and i mean the the socket with electrical burns.then and not leasr you have the drug dealers in the parking lot. O ps no breakfast and no coffee  makers in the room. I will never stay at a knights inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>KNIGHTSINNBUENAPARK, Manager at Knights Inn Buena Park/Anaheim, responded to this reviewResponded March 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2013</t>
+  </si>
+  <si>
+    <t>To start you get the enjoyment of paying an extra $5 fee per day for your car or it will get towed. Then you get to pay $6 hotel fee? Then in the room you get extra friends to stay with you in the bed on the carpet and the walls. Then when you ask for more towels or should i say rags they want to charge extra for them. It was close to the park but you get to see working girls getting extra cash in the parkinglot on the way to the park. Also we had to change rooms the first one had the door to the fridge and the plug came out and i mean the the socket with electrical burns.then and not leasr you have the drug dealers in the parking lot. O ps no breakfast and no coffee  makers in the room. I will never stay at a knights inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r149767056-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>149767056</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Sleeping Like Peasants at the Knights Inn</t>
+  </si>
+  <si>
+    <t>This is literally the WORST hotel experience I have ever had in my life.We stayed here in September to stay after a trip to Knott's Berry Farm. There were many of us, and the employee told us over the phone that we were being given their "biggest room" which had two beds and a fold-out couch. This was a blatant lie.We got to the hotel and there was no couch. As a result, two of us had to sleep on the floor.The "complimentary breakfast" consists of a box of donuts that sit overnight in the lobby that the employees eat.In the morning, when I went to take a shower, the water coming out of the shower was brown. I called the front desk and they said they would send someone over to fix it. I asked if I could use a neighboring shower, and was denied. When the employee came hours later, it was check-out time. We were all dirty, unclean, and miserable.We were refused a full refund. Please, pay a little more and avoid this place like the plague.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>This is literally the WORST hotel experience I have ever had in my life.We stayed here in September to stay after a trip to Knott's Berry Farm. There were many of us, and the employee told us over the phone that we were being given their "biggest room" which had two beds and a fold-out couch. This was a blatant lie.We got to the hotel and there was no couch. As a result, two of us had to sleep on the floor.The "complimentary breakfast" consists of a box of donuts that sit overnight in the lobby that the employees eat.In the morning, when I went to take a shower, the water coming out of the shower was brown. I called the front desk and they said they would send someone over to fix it. I asked if I could use a neighboring shower, and was denied. When the employee came hours later, it was check-out time. We were all dirty, unclean, and miserable.We were refused a full refund. Please, pay a little more and avoid this place like the plague.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r148915031-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>148915031</t>
+  </si>
+  <si>
+    <t>01/05/2013</t>
+  </si>
+  <si>
+    <t>Just your average stay</t>
+  </si>
+  <si>
+    <t>The room was clean, clean sheets, clean bathroom. The bathroom could use a little updating. The bed was pretty decent to sleep on. We were on the bottom floor, so could hear people walking above us and could hear the shower water being turned on and off from the above room. The  tv, fridge, microwave all in good working order.We did have a little trouble with the door unlocking and not being able to lock it, but was able to fix it on our own. They could do a little better on the continental breakfast as they served bakery style doughnuts and coffee in the main office. Super close to Knott's Berry Farm, Medevial Times, and the Pirate dinner show. Our trip was actually to Disneyland which was only 7 miles down the freeeway. Super easy to get to and from from this hotel. We saved $150 by staying here as opposed to staying at a hotel near Disneyland. I would def stay here again if they keep their prices as low as they were!!!  (:MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>The room was clean, clean sheets, clean bathroom. The bathroom could use a little updating. The bed was pretty decent to sleep on. We were on the bottom floor, so could hear people walking above us and could hear the shower water being turned on and off from the above room. The  tv, fridge, microwave all in good working order.We did have a little trouble with the door unlocking and not being able to lock it, but was able to fix it on our own. They could do a little better on the continental breakfast as they served bakery style doughnuts and coffee in the main office. Super close to Knott's Berry Farm, Medevial Times, and the Pirate dinner show. Our trip was actually to Disneyland which was only 7 miles down the freeeway. Super easy to get to and from from this hotel. We saved $150 by staying here as opposed to staying at a hotel near Disneyland. I would def stay here again if they keep their prices as low as they were!!!  (:More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r141375558-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>141375558</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>This hotel was in the center of so Cal and was across the street from knotts berry farm. The rooms were kept clean and they had a microwave and refrigerator in it. Front desk staff was also friendly and helpfull. We didn't use the pool but looked clean. I would reccomend this hotel to people who want to get some good rest but not pay and arm for a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r141193921-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>141193921</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Stayed here while on vacation with family in July</t>
+  </si>
+  <si>
+    <t>This hotel is not for you if you enjoy luxury. It is dark and dingy, although they did have clean sheets and lots of clean towels. We only slept and showered here since we were out since the crack of dawn til very late at night. They did have donuts for breakfast in the office. They do have a pool. Great location near restaurants, Walmart, and a theme park. About 30 minutes to the beach with all the traffic lights. I would not recommend if you will be staying in your room all day, but if you are going to be out alot and dont mind budget hotels then I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>This hotel is not for you if you enjoy luxury. It is dark and dingy, although they did have clean sheets and lots of clean towels. We only slept and showered here since we were out since the crack of dawn til very late at night. They did have donuts for breakfast in the office. They do have a pool. Great location near restaurants, Walmart, and a theme park. About 30 minutes to the beach with all the traffic lights. I would not recommend if you will be staying in your room all day, but if you are going to be out alot and dont mind budget hotels then I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r132628015-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>132628015</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Worn down hotel good for cheap stay</t>
+  </si>
+  <si>
+    <t>The hotel is worn down and needs some serious maintenance to bring it to the level of appearance where I would feel comfortable suggesting that someone I know stay here in the future. The room was clean but because it was worn down it gave off a grungy appearance. There were broken park benches in front of the rooms and the soda machine was empty for the two days I stayed there. The room lacked basic amenities like an alarm clock and an iron. I did ask at the front desk for an iron and they went and bought me one. That was really nice but I ended up having to iron on the desk. The hotel says they offered free breakfast but placing a box of doughnuts on a counter does not qualify as offering a free breakfast. I was very disappointed by this. Overall, the room was cheap ($50) for this area but in this case, you do get what you paid for.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The hotel is worn down and needs some serious maintenance to bring it to the level of appearance where I would feel comfortable suggesting that someone I know stay here in the future. The room was clean but because it was worn down it gave off a grungy appearance. There were broken park benches in front of the rooms and the soda machine was empty for the two days I stayed there. The room lacked basic amenities like an alarm clock and an iron. I did ask at the front desk for an iron and they went and bought me one. That was really nice but I ended up having to iron on the desk. The hotel says they offered free breakfast but placing a box of doughnuts on a counter does not qualify as offering a free breakfast. I was very disappointed by this. Overall, the room was cheap ($50) for this area but in this case, you do get what you paid for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r126118198-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>126118198</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>Not worth the $$</t>
+  </si>
+  <si>
+    <t>I read the reviews and was thinking this was more or less a simple hotel &amp; a place to sleep.... Well honestly it was a place to sleep but it was horrioble.  We arrived &amp; checked in the lady didn't really say anything to me at check in, customer service was seriously lacking, but I thought well ok. Then we went into the room, the decor is older &amp; very simple- Thats fine, what wasn't ok was that all the windows were cracked open along the hotel- This isn't the safest part of town, you drive out of the disneyland area into a more run down part of town.,  Anyway once we walked in I realized why. The rooms were all muggy &amp; musty smelling. They were humid to the point my hair went flat! I wasn't about to sleep with both windows unlocked so I closed them &amp; turned on the air, the thermostat wasn't working well so I would have to get up through out the night to turn off the air, It was appx 50 degree's outside so the air wasn't to keep us cool, but to get the musty smell and humidity out of the room. The carpet is sticky feeling, probably from the humidity...The beds were hard and uncomfortable. We did have 3 beds, which was nice since we are a family of 5 staying there. It did have a microwave &amp; mini fridge. We...I read the reviews and was thinking this was more or less a simple hotel &amp; a place to sleep.... Well honestly it was a place to sleep but it was horrioble.  We arrived &amp; checked in the lady didn't really say anything to me at check in, customer service was seriously lacking, but I thought well ok. Then we went into the room, the decor is older &amp; very simple- Thats fine, what wasn't ok was that all the windows were cracked open along the hotel- This isn't the safest part of town, you drive out of the disneyland area into a more run down part of town.,  Anyway once we walked in I realized why. The rooms were all muggy &amp; musty smelling. They were humid to the point my hair went flat! I wasn't about to sleep with both windows unlocked so I closed them &amp; turned on the air, the thermostat wasn't working well so I would have to get up through out the night to turn off the air, It was appx 50 degree's outside so the air wasn't to keep us cool, but to get the musty smell and humidity out of the room. The carpet is sticky feeling, probably from the humidity...The beds were hard and uncomfortable. We did have 3 beds, which was nice since we are a family of 5 staying there. It did have a microwave &amp; mini fridge. We have stayed at days inn hotels in the past &amp; they have always been very clean &amp; simple. This place is a dump! We were in a non-smoking room, but there was a bench outside that people would come &amp; sit on &amp; then smoke, so when the window was open smoke was coming in. Pros: It has beds, microwave &amp; fridge.. Cons: Breakfast doesn't start until 7am, so if you are going to Disney for opening time, you won't get breakfast. Breakfast was donuts &amp; corn flakes &amp; fruit loops &amp; toast. Coffee. No juice or even water, no fruit, no muffins ... etc.. This is a very basic hotel. 10-15 minute drive disneyland depending on traffic, a lot closer to Knott'sBerry Farm. Really if I had not already prepaid the non-refundable rate I would not have stayed. I paid almost $75 per night- That was highway robbery for what we got!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I read the reviews and was thinking this was more or less a simple hotel &amp; a place to sleep.... Well honestly it was a place to sleep but it was horrioble.  We arrived &amp; checked in the lady didn't really say anything to me at check in, customer service was seriously lacking, but I thought well ok. Then we went into the room, the decor is older &amp; very simple- Thats fine, what wasn't ok was that all the windows were cracked open along the hotel- This isn't the safest part of town, you drive out of the disneyland area into a more run down part of town.,  Anyway once we walked in I realized why. The rooms were all muggy &amp; musty smelling. They were humid to the point my hair went flat! I wasn't about to sleep with both windows unlocked so I closed them &amp; turned on the air, the thermostat wasn't working well so I would have to get up through out the night to turn off the air, It was appx 50 degree's outside so the air wasn't to keep us cool, but to get the musty smell and humidity out of the room. The carpet is sticky feeling, probably from the humidity...The beds were hard and uncomfortable. We did have 3 beds, which was nice since we are a family of 5 staying there. It did have a microwave &amp; mini fridge. We...I read the reviews and was thinking this was more or less a simple hotel &amp; a place to sleep.... Well honestly it was a place to sleep but it was horrioble.  We arrived &amp; checked in the lady didn't really say anything to me at check in, customer service was seriously lacking, but I thought well ok. Then we went into the room, the decor is older &amp; very simple- Thats fine, what wasn't ok was that all the windows were cracked open along the hotel- This isn't the safest part of town, you drive out of the disneyland area into a more run down part of town.,  Anyway once we walked in I realized why. The rooms were all muggy &amp; musty smelling. They were humid to the point my hair went flat! I wasn't about to sleep with both windows unlocked so I closed them &amp; turned on the air, the thermostat wasn't working well so I would have to get up through out the night to turn off the air, It was appx 50 degree's outside so the air wasn't to keep us cool, but to get the musty smell and humidity out of the room. The carpet is sticky feeling, probably from the humidity...The beds were hard and uncomfortable. We did have 3 beds, which was nice since we are a family of 5 staying there. It did have a microwave &amp; mini fridge. We have stayed at days inn hotels in the past &amp; they have always been very clean &amp; simple. This place is a dump! We were in a non-smoking room, but there was a bench outside that people would come &amp; sit on &amp; then smoke, so when the window was open smoke was coming in. Pros: It has beds, microwave &amp; fridge.. Cons: Breakfast doesn't start until 7am, so if you are going to Disney for opening time, you won't get breakfast. Breakfast was donuts &amp; corn flakes &amp; fruit loops &amp; toast. Coffee. No juice or even water, no fruit, no muffins ... etc.. This is a very basic hotel. 10-15 minute drive disneyland depending on traffic, a lot closer to Knott'sBerry Farm. Really if I had not already prepaid the non-refundable rate I would not have stayed. I paid almost $75 per night- That was highway robbery for what we got!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r126056193-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>126056193</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>This took 2nd place to the worst experiences we have had with Motels</t>
+  </si>
+  <si>
+    <t>A big sign out front says "Weekly Rates" Which should have been our first clue to stay away. The people seemed nice but kind of oblivious to how run down and nasty this place is. The photo which shows the lobby with those awesome curtains. There is food way up high on the curtains don't ask me how it go there. The room was fairly clean and our beds were clean and I give them a 5 to a 6 for comfort. People were sitting like in lawn chairs out front of the downstairs units. We were upstairs and the tiles were cracking on the floor and falling apart. The maid forgot to clean our room one day so I called the front desk to ask for more hand towels and wash cloths and they said "Sorry, all we have is large bath towels" Are you Kidding me!! The next morning I told the manager that we were leaving for the day and I hope the maid cleans out room and gives us fresh towels. She was shocked. She didn't even know I had called about towels and already reported this. Its about 7 miles to disneyland. Also we came home from disney one night and all the upstairs room doors were open except ours so as we pass by and look in we see they have shampooed all the carpets and were letting the rooms dry out. The breakfast...A big sign out front says "Weekly Rates" Which should have been our first clue to stay away. The people seemed nice but kind of oblivious to how run down and nasty this place is. The photo which shows the lobby with those awesome curtains. There is food way up high on the curtains don't ask me how it go there. The room was fairly clean and our beds were clean and I give them a 5 to a 6 for comfort. People were sitting like in lawn chairs out front of the downstairs units. We were upstairs and the tiles were cracking on the floor and falling apart. The maid forgot to clean our room one day so I called the front desk to ask for more hand towels and wash cloths and they said "Sorry, all we have is large bath towels" Are you Kidding me!! The next morning I told the manager that we were leaving for the day and I hope the maid cleans out room and gives us fresh towels. She was shocked. She didn't even know I had called about towels and already reported this. Its about 7 miles to disneyland. Also we came home from disney one night and all the upstairs room doors were open except ours so as we pass by and look in we see they have shampooed all the carpets and were letting the rooms dry out. The breakfast consisted of cold cereal, coffee, donuts and bread to toast. MY husband says you get what you pay for. We won't be back. The motel up the street has a big sign that says "Drug and Alcohol Free Motel Rooms" That concerns me when you have to announce that. I felt it was in a rougher part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>A big sign out front says "Weekly Rates" Which should have been our first clue to stay away. The people seemed nice but kind of oblivious to how run down and nasty this place is. The photo which shows the lobby with those awesome curtains. There is food way up high on the curtains don't ask me how it go there. The room was fairly clean and our beds were clean and I give them a 5 to a 6 for comfort. People were sitting like in lawn chairs out front of the downstairs units. We were upstairs and the tiles were cracking on the floor and falling apart. The maid forgot to clean our room one day so I called the front desk to ask for more hand towels and wash cloths and they said "Sorry, all we have is large bath towels" Are you Kidding me!! The next morning I told the manager that we were leaving for the day and I hope the maid cleans out room and gives us fresh towels. She was shocked. She didn't even know I had called about towels and already reported this. Its about 7 miles to disneyland. Also we came home from disney one night and all the upstairs room doors were open except ours so as we pass by and look in we see they have shampooed all the carpets and were letting the rooms dry out. The breakfast...A big sign out front says "Weekly Rates" Which should have been our first clue to stay away. The people seemed nice but kind of oblivious to how run down and nasty this place is. The photo which shows the lobby with those awesome curtains. There is food way up high on the curtains don't ask me how it go there. The room was fairly clean and our beds were clean and I give them a 5 to a 6 for comfort. People were sitting like in lawn chairs out front of the downstairs units. We were upstairs and the tiles were cracking on the floor and falling apart. The maid forgot to clean our room one day so I called the front desk to ask for more hand towels and wash cloths and they said "Sorry, all we have is large bath towels" Are you Kidding me!! The next morning I told the manager that we were leaving for the day and I hope the maid cleans out room and gives us fresh towels. She was shocked. She didn't even know I had called about towels and already reported this. Its about 7 miles to disneyland. Also we came home from disney one night and all the upstairs room doors were open except ours so as we pass by and look in we see they have shampooed all the carpets and were letting the rooms dry out. The breakfast consisted of cold cereal, coffee, donuts and bread to toast. MY husband says you get what you pay for. We won't be back. The motel up the street has a big sign that says "Drug and Alcohol Free Motel Rooms" That concerns me when you have to announce that. I felt it was in a rougher part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r120766076-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>120766076</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>Some rooms are good, some not so much.  100 TV Channels.</t>
+  </si>
+  <si>
+    <t>My first room had a bed that was so hard i could not sleep.  I was upgraded to a clean, comfortable room w/ a huge bed and plenty of room.  The satellite tv channels are great including Golf, Food, E, Bravo, etc.  The pool was closed.  Carbs and coffee for continental breakfast.  Nice people on staff at front desk.  Good housekeeping, though the third room i was moved to had disgusting carpet. Knotts Berry Farm is very close.  Shopping and restaurants nearby.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r119404403-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>119404403</t>
+  </si>
+  <si>
+    <t>10/17/2011</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>Convenient location (knotts, mall). Nothing fancy here just a place to sleep. Room was decent and clean upon arrival. Would definitely recommend if you just need a place to stay.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r118638902-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>118638902</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Average even considering the price</t>
+  </si>
+  <si>
+    <t>Take one standard Days inn motor lodge from the 80's then clean and maintain sporadically to get the Days Inn Buena Park.  Worn out (scuffed furniture, door with broken lock, stained lamp sagging  balcony, a little grotty(dirty carpet, mildew and broken tiles) but cheap and close to Knotts and places to eat.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r118209686-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>118209686</t>
+  </si>
+  <si>
+    <t>09/16/2011</t>
+  </si>
+  <si>
+    <t>Only if you are stuck....</t>
+  </si>
+  <si>
+    <t>Lets be honest: what you pay is almost what you get, and mot a cent more.The room we stayed saw certainly better days, the breakfast room (doesnt exist practically) serves a breakfast you can skip....Spidernets are welcome (spiderman would have felt at home).It doesnt mean that it is terrible, but one night is enough (especially if no option is available).The pictures you see on the net are not what i saw and i had my glasses on.But chear up, after one night theres always another day, isn't there?</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r116453550-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>116453550</t>
+  </si>
+  <si>
+    <t>08/08/2011</t>
+  </si>
+  <si>
+    <t>Helpful staff and clean beds</t>
+  </si>
+  <si>
+    <t>Check in was relatively slow even though we were the only party there.  We appreciated that they let us checked in before 3 pm.  Our two rooms were spacious and on the second floor.  There was no elevator.  The beds were clean.  The furniture was tired however.  AC was great for the hot summer days.  There was a microwave in each room.  Good thing I brought my own towel because the towels I got for 3 out of 7 days did not pass my inspection: first day there were quite a few red stains, second day there was a few yellow stains and last day towel was so thin with black threads/stuff on it.  It is two blocks from a walgreens and within walking distance to Knotts' Berry Farm and its eating establishments.  The Buena Park mall was within walking distance maybe 20 minutes.  The staff was helpful in phoning taxi and assisting with figuring out the remote control.  $25 taxi drive to Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was relatively slow even though we were the only party there.  We appreciated that they let us checked in before 3 pm.  Our two rooms were spacious and on the second floor.  There was no elevator.  The beds were clean.  The furniture was tired however.  AC was great for the hot summer days.  There was a microwave in each room.  Good thing I brought my own towel because the towels I got for 3 out of 7 days did not pass my inspection: first day there were quite a few red stains, second day there was a few yellow stains and last day towel was so thin with black threads/stuff on it.  It is two blocks from a walgreens and within walking distance to Knotts' Berry Farm and its eating establishments.  The Buena Park mall was within walking distance maybe 20 minutes.  The staff was helpful in phoning taxi and assisting with figuring out the remote control.  $25 taxi drive to Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r116069894-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>116069894</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Great stay at affordable price</t>
+  </si>
+  <si>
+    <t>This hotel was a nice place to stay for a night. Clean, nice staff, has sink separate from bathroom (great for us because we were two couples staying together). Unfortunately they only gave us 3 towels for 4 people and r in need of serious updating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r115290213-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>115290213</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>Clean but needs updating.</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights here. The front desk was friendly, the room was clean with the exception of a wet towel left on the hook of the door. The beds were comfortable they seemed pretty new. The location was good very close to Knott's and the mall. I basically got what I paid for. The hotel just seems old and needs updating.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r36823254-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>36823254</t>
+  </si>
+  <si>
+    <t>08/05/2009</t>
+  </si>
+  <si>
+    <t>Okay place to stay if you are just needing to sleep</t>
+  </si>
+  <si>
+    <t>This facility is average if you need just sleep the rooms are okay... problem is this is a MOTEL your own door so forth therefore if you are traveling with kids this might make some fearful.  The carpeting is a deep dark green shag clean enough if you leave your shoes on.  Bed okay just pull back the bedspread whatever you do.... bathroom actually clean and new refreshing.  So bottom line here is if you need a cheap place to sleep book it if you are looking for anything beyond that stay away from this one.  They say they have a pool and complementary breakfast dont know we left early... there were 3 tables crammed into the tiny tiny MOTEL type of check in... I guess that is where they serve... the pool was outside size of a hottub a chair or two and by the trash containers in the rear of the property... like I said to sleep only ... okay anything more skip it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>This facility is average if you need just sleep the rooms are okay... problem is this is a MOTEL your own door so forth therefore if you are traveling with kids this might make some fearful.  The carpeting is a deep dark green shag clean enough if you leave your shoes on.  Bed okay just pull back the bedspread whatever you do.... bathroom actually clean and new refreshing.  So bottom line here is if you need a cheap place to sleep book it if you are looking for anything beyond that stay away from this one.  They say they have a pool and complementary breakfast dont know we left early... there were 3 tables crammed into the tiny tiny MOTEL type of check in... I guess that is where they serve... the pool was outside size of a hottub a chair or two and by the trash containers in the rear of the property... like I said to sleep only ... okay anything more skip it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r34907095-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>34907095</t>
+  </si>
+  <si>
+    <t>07/16/2009</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night during our trip to Knotts Berry Farm. I'm believe that this hotel may have had been recently renovated. Check in went well and the clerk was helpful. The carpet felt plush and was free of stains, the beds were comfortable and the room's appearance overall was warm and inviting. There was even crown molding throughout the room. The bathroom also looked newly updated. The room came with a fridge, microwave and small coffee pot. Breakfast consisted of donuts, bread, use of a toaster, two cereals that could have been Fruit Loops and Special K. There was your choice of coffee, apple or orange juice. Right across the street was Carrow's Restaurant. The location was fine with me as I knew I would be parking at Knotts although there was only a few choices of a restaurants and it was away from the main area of the attractions. However, for a quite nice sleep I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>We stayed here for one night during our trip to Knotts Berry Farm. I'm believe that this hotel may have had been recently renovated. Check in went well and the clerk was helpful. The carpet felt plush and was free of stains, the beds were comfortable and the room's appearance overall was warm and inviting. There was even crown molding throughout the room. The bathroom also looked newly updated. The room came with a fridge, microwave and small coffee pot. Breakfast consisted of donuts, bread, use of a toaster, two cereals that could have been Fruit Loops and Special K. There was your choice of coffee, apple or orange juice. Right across the street was Carrow's Restaurant. The location was fine with me as I knew I would be parking at Knotts although there was only a few choices of a restaurants and it was away from the main area of the attractions. However, for a quite nice sleep I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r20888574-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>20888574</t>
+  </si>
+  <si>
+    <t>10/14/2008</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>The motel was dated, carpets were filthy, theere were ants everywhere, climbing up the wall into the ceiling. One morning the covered th sink area, disgusting! Plus we had an item stolen from our room. We were in cali to visit disney. My childrens grandma had purchased them all build a bear bears while in downtown Disney. We arrived one night with three bears, the bears never left the room again until we checked out and we checked out with only two! We asked numerous times. And even asked how honest the cleaning crew was! I am so upset that someone would steal a baby's bear!!! I will never stay at this motel or any other Days Inn motels again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>The motel was dated, carpets were filthy, theere were ants everywhere, climbing up the wall into the ceiling. One morning the covered th sink area, disgusting! Plus we had an item stolen from our room. We were in cali to visit disney. My childrens grandma had purchased them all build a bear bears while in downtown Disney. We arrived one night with three bears, the bears never left the room again until we checked out and we checked out with only two! We asked numerous times. And even asked how honest the cleaning crew was! I am so upset that someone would steal a baby's bear!!! I will never stay at this motel or any other Days Inn motels again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r16541951-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>16541951</t>
+  </si>
+  <si>
+    <t>05/31/2008</t>
+  </si>
+  <si>
+    <t>Great Bargain</t>
+  </si>
+  <si>
+    <t>This is an older property, but the room was clean (other than a few stains on carpet) and in good condition.  There was a large TV and a refrigerator in the room.  Breakfast was just toast and juice and coffee, and the bread had run out at first, but when I checked back later they had restocked.  I couldn't really complain, though, because the rate for the room was very affordable.  The best thing about the room was that the beds and pillows were very comfortable.  Also, it is a very short walk to Knott's Berry Farm. It is not fancy, but I would certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>daysinnbpk, GM at Knights Inn Buena Park/Anaheim, responded to this reviewResponded September 3, 2008</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2008</t>
+  </si>
+  <si>
+    <t>This is an older property, but the room was clean (other than a few stains on carpet) and in good condition.  There was a large TV and a refrigerator in the room.  Breakfast was just toast and juice and coffee, and the bread had run out at first, but when I checked back later they had restocked.  I couldn't really complain, though, because the rate for the room was very affordable.  The best thing about the room was that the beds and pillows were very comfortable.  Also, it is a very short walk to Knott's Berry Farm. It is not fancy, but I would certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r13721582-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>13721582</t>
+  </si>
+  <si>
+    <t>02/20/2008</t>
+  </si>
+  <si>
+    <t>Decent for price...semi clean....very near Knotts Berry Farm</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night 2/18-2/19 for $39 AAA rate before taxes. Stayed in room 226 second floor facing an empty parking lot.  Room was 2 Queen size bed with fridge, microwave, and 2 electric grill burners with a sink.  Decor in room was a little old and run down but decent and clean.  Carpet was kind of dirty with stain but wasn't bad.  Bathroom was clean but had a slippery tub and loud fan.  Bed:  Very Firm bedding and clean pillows, but I recommend to bring your own blankets as the provided "blanket" was uncomfortable and kinda dirty.  Bed sheets look old.TV:  Watchable but also not too many channels.  A few channels were kind of fuzzy but otherwise ok.  Use the remote and menu settings to change the channel versions with auto programming because sometimes people will play with the channel settings that will delete some channels. Staff:  Friendly but not very resourceful.  Bring a GPS system if u can.Location:  Only 1 block from Kotts Berry farm and the waterpark.  2 Blocks from the downtown mall.   Lots of restaurant and stores around   10 min. Drive to DisneylandMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night 2/18-2/19 for $39 AAA rate before taxes. Stayed in room 226 second floor facing an empty parking lot.  Room was 2 Queen size bed with fridge, microwave, and 2 electric grill burners with a sink.  Decor in room was a little old and run down but decent and clean.  Carpet was kind of dirty with stain but wasn't bad.  Bathroom was clean but had a slippery tub and loud fan.  Bed:  Very Firm bedding and clean pillows, but I recommend to bring your own blankets as the provided "blanket" was uncomfortable and kinda dirty.  Bed sheets look old.TV:  Watchable but also not too many channels.  A few channels were kind of fuzzy but otherwise ok.  Use the remote and menu settings to change the channel versions with auto programming because sometimes people will play with the channel settings that will delete some channels. Staff:  Friendly but not very resourceful.  Bring a GPS system if u can.Location:  Only 1 block from Kotts Berry farm and the waterpark.  2 Blocks from the downtown mall.   Lots of restaurant and stores around   10 min. Drive to DisneylandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r11127210-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>11127210</t>
+  </si>
+  <si>
+    <t>11/28/2007</t>
+  </si>
+  <si>
+    <t>Great Price, Decent Room</t>
+  </si>
+  <si>
+    <t>I stayed at the Days Inn for one night for the AAA rate of $33.30. The reviews on Trip Advisor seemed positive. The room was like a typical motel room. For the most part it was clean and the bed comfortable. Amenities include shampoo, a hair dryer and coffee. The tub knob was a little loose.They serve a continental breakfast in the morning, but when I got there at 9AM, everything was gone. But no big deal there as they only serve sweet pastries and donuts, along with juice and coffee.To sum it up, the Days Inn will give you a comfortable night at a low rate.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r5602323-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>5602323</t>
+  </si>
+  <si>
+    <t>08/10/2006</t>
+  </si>
+  <si>
+    <t>4 days in Buena Park</t>
+  </si>
+  <si>
+    <t>Room is what you would expect for $56.00 USD in Buena Park / Anaheim area.Clean room, microwave, small fridge and king size bed.  Small pool but with only 3 or 4 chairs available it was not user friendly.  Great location and a 5 minute walk to Knotts Berry Farm and the same to Knotts Water Park.  It is located on Stanton Avenue but you can call it Beach Blvd.  Easy to find and close to everything.  Room was made up almost everymorning as we left for breakfast at 8 AM and cleaned when we returned from eating.Hotel lobby limited, but there is coffee and doughnuts available for guests in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>Room is what you would expect for $56.00 USD in Buena Park / Anaheim area.Clean room, microwave, small fridge and king size bed.  Small pool but with only 3 or 4 chairs available it was not user friendly.  Great location and a 5 minute walk to Knotts Berry Farm and the same to Knotts Water Park.  It is located on Stanton Avenue but you can call it Beach Blvd.  Easy to find and close to everything.  Room was made up almost everymorning as we left for breakfast at 8 AM and cleaned when we returned from eating.Hotel lobby limited, but there is coffee and doughnuts available for guests in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r5550255-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>5550255</t>
+  </si>
+  <si>
+    <t>08/02/2006</t>
+  </si>
+  <si>
+    <t>disappointed in days inn and suites</t>
+  </si>
+  <si>
+    <t>I would not recommend this establishment for anyone. the lobby smelled of urine.  The general upkeep was poor, the whole place needed paint and carpet cleaning. My room had so many issues: a non-working T.V. being stored there, a toilet that repeatedly refused to flush  and a fist-sized hole in the wall stuffed with kleenex to name a few.  The hall way and the back parking lot were used as storage or perhaps a dumping ground for discarded furniture and mattresses. An unpleasant experience to say the least.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r2843813-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>2843813</t>
+  </si>
+  <si>
+    <t>11/22/2004</t>
+  </si>
+  <si>
+    <t>Better then I expected</t>
+  </si>
+  <si>
+    <t>This was much more then I expected for the price. The room was clean and it was close to Knott's Berry Farm (Big plus). The staff was friendly and knowledgeable about the area. Usually you get what you pay for, but in this case we feel like we got a great deal. We were just loking for a place to sleep for the night, and this was much nicer then other hotels we have come accross.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1938,4546 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>204</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>214</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>204</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>222</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>222</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>222</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>232</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>232</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>232</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" t="s">
+        <v>248</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>232</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>255</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" t="s">
+        <v>261</v>
+      </c>
+      <c r="K43" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43" t="s">
+        <v>263</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O43" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>271</v>
+      </c>
+      <c r="X44" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>275</v>
+      </c>
+      <c r="J45" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" t="s">
+        <v>277</v>
+      </c>
+      <c r="L45" t="s">
+        <v>278</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>271</v>
+      </c>
+      <c r="X45" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>282</v>
+      </c>
+      <c r="J46" t="s">
+        <v>283</v>
+      </c>
+      <c r="K46" t="s">
+        <v>284</v>
+      </c>
+      <c r="L46" t="s">
+        <v>285</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>286</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>287</v>
+      </c>
+      <c r="X46" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>290</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>291</v>
+      </c>
+      <c r="J47" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" t="s">
+        <v>293</v>
+      </c>
+      <c r="L47" t="s">
+        <v>294</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>295</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>296</v>
+      </c>
+      <c r="X47" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>300</v>
+      </c>
+      <c r="J48" t="s">
+        <v>301</v>
+      </c>
+      <c r="K48" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" t="s">
+        <v>303</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" t="s">
+        <v>306</v>
+      </c>
+      <c r="K49" t="s">
+        <v>307</v>
+      </c>
+      <c r="L49" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>310</v>
+      </c>
+      <c r="X49" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>314</v>
+      </c>
+      <c r="J50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K50" t="s">
+        <v>316</v>
+      </c>
+      <c r="L50" t="s">
+        <v>317</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>318</v>
+      </c>
+      <c r="X50" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>321</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>322</v>
+      </c>
+      <c r="J51" t="s">
+        <v>323</v>
+      </c>
+      <c r="K51" t="s">
+        <v>324</v>
+      </c>
+      <c r="L51" t="s">
+        <v>325</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>326</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>329</v>
+      </c>
+      <c r="J52" t="s">
+        <v>330</v>
+      </c>
+      <c r="K52" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s">
+        <v>332</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>333</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>336</v>
+      </c>
+      <c r="J53" t="s">
+        <v>337</v>
+      </c>
+      <c r="K53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" t="s">
+        <v>338</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" t="s">
+        <v>342</v>
+      </c>
+      <c r="L54" t="s">
+        <v>343</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>346</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>347</v>
+      </c>
+      <c r="J55" t="s">
+        <v>348</v>
+      </c>
+      <c r="K55" t="s">
+        <v>349</v>
+      </c>
+      <c r="L55" t="s">
+        <v>350</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>351</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>353</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>354</v>
+      </c>
+      <c r="J56" t="s">
+        <v>355</v>
+      </c>
+      <c r="K56" t="s">
+        <v>356</v>
+      </c>
+      <c r="L56" t="s">
+        <v>357</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>358</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>361</v>
+      </c>
+      <c r="J57" t="s">
+        <v>362</v>
+      </c>
+      <c r="K57" t="s">
+        <v>363</v>
+      </c>
+      <c r="L57" t="s">
+        <v>364</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>365</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>367</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J58" t="s">
+        <v>369</v>
+      </c>
+      <c r="K58" t="s">
+        <v>370</v>
+      </c>
+      <c r="L58" t="s">
+        <v>371</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>372</v>
+      </c>
+      <c r="O58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>374</v>
+      </c>
+      <c r="J59" t="s">
+        <v>375</v>
+      </c>
+      <c r="K59" t="s">
+        <v>376</v>
+      </c>
+      <c r="L59" t="s">
+        <v>377</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>378</v>
+      </c>
+      <c r="O59" t="s">
+        <v>117</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>380</v>
+      </c>
+      <c r="J60" t="s">
+        <v>381</v>
+      </c>
+      <c r="K60" t="s">
+        <v>382</v>
+      </c>
+      <c r="L60" t="s">
+        <v>383</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>385</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>386</v>
+      </c>
+      <c r="J61" t="s">
+        <v>387</v>
+      </c>
+      <c r="K61" t="s">
+        <v>388</v>
+      </c>
+      <c r="L61" t="s">
+        <v>389</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>391</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J62" t="s">
+        <v>393</v>
+      </c>
+      <c r="K62" t="s">
+        <v>394</v>
+      </c>
+      <c r="L62" t="s">
+        <v>395</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>390</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>398</v>
+      </c>
+      <c r="J63" t="s">
+        <v>399</v>
+      </c>
+      <c r="K63" t="s">
+        <v>400</v>
+      </c>
+      <c r="L63" t="s">
+        <v>401</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s">
+        <v>406</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>407</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>408</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>409</v>
+      </c>
+      <c r="J65" t="s">
+        <v>410</v>
+      </c>
+      <c r="K65" t="s">
+        <v>411</v>
+      </c>
+      <c r="L65" t="s">
+        <v>412</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>413</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>416</v>
+      </c>
+      <c r="J66" t="s">
+        <v>417</v>
+      </c>
+      <c r="K66" t="s">
+        <v>418</v>
+      </c>
+      <c r="L66" t="s">
+        <v>419</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>420</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>423</v>
+      </c>
+      <c r="J67" t="s">
+        <v>424</v>
+      </c>
+      <c r="K67" t="s">
+        <v>425</v>
+      </c>
+      <c r="L67" t="s">
+        <v>426</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>427</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>430</v>
+      </c>
+      <c r="J68" t="s">
+        <v>431</v>
+      </c>
+      <c r="K68" t="s">
+        <v>432</v>
+      </c>
+      <c r="L68" t="s">
+        <v>433</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>434</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>435</v>
+      </c>
+      <c r="X68" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>439</v>
+      </c>
+      <c r="J69" t="s">
+        <v>440</v>
+      </c>
+      <c r="K69" t="s">
+        <v>441</v>
+      </c>
+      <c r="L69" t="s">
+        <v>442</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>443</v>
+      </c>
+      <c r="O69" t="s">
+        <v>124</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>445</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>446</v>
+      </c>
+      <c r="J70" t="s">
+        <v>447</v>
+      </c>
+      <c r="K70" t="s">
+        <v>448</v>
+      </c>
+      <c r="L70" t="s">
+        <v>449</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>450</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>452</v>
+      </c>
+      <c r="J71" t="s">
+        <v>453</v>
+      </c>
+      <c r="K71" t="s">
+        <v>454</v>
+      </c>
+      <c r="L71" t="s">
+        <v>455</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>458</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>459</v>
+      </c>
+      <c r="J72" t="s">
+        <v>460</v>
+      </c>
+      <c r="K72" t="s">
+        <v>461</v>
+      </c>
+      <c r="L72" t="s">
+        <v>462</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>464</v>
+      </c>
+      <c r="J73" t="s">
+        <v>465</v>
+      </c>
+      <c r="K73" t="s">
+        <v>466</v>
+      </c>
+      <c r="L73" t="s">
+        <v>467</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_456.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_456.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>oliver a</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Stephen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r503261856-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>The hotel itself is situated nice and close to Knott's Berry Farm, 2 blocks to walk. We were here for 9 days, made it our base for all our travels around southern California. The Hotel is clean and the a/c works really well, keeps the room almost to cold. It has a pool which is nice on those hot days, only thing with that I had to clean it myself from all the leaves in it. The beds were a little hard to my liking but comfortable enough to get a good nights sleep. It has a fridge and microwave to help save some on eating out all the time. The front desk guy was very nice and helpful. Overall, I would probably stay here again.More</t>
   </si>
   <si>
+    <t>Felicia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r501425969-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>After driving 12 hours from Texas to California. I booked this hotel a week prior to our visit. Will driving there we received a call from the general manager "Sam" he was rude right from the beginning!! However we were already tired and kept the reservation. My best friend and I decided to take our little boys with us. So finally we get to the room and the room smelled like pee and mildew (wet carpet or clothes). We started seeing nats everywhere. And then the room was not clean. The covers had burn holes in them, cut up . Walls had writing all over it, the smoke detector had a plastic bag over it!! Walls had holes all in it!! Nothing was wiped down. So we told the manager and he still didn't change the sheets. Then as we started leaving you see the cleaning lady take the clean towels out the dryer throw them all on the floor. Pick them up one by one and started folding them and putting them into her cart (which I have a VIDEO OF)! Also showed the manager, and he started raising his voice saying it's none of our business. Nothing is any of our business! I told him I will be leaving a review. He got loud and was rude for no reason!!!! Smh NEVER F@@@n AGAIN!!!! Ever!!!More</t>
   </si>
   <si>
+    <t>Christopher A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r442117052-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>RZAeatGLORIOUSfood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r434114703-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>Place was a good little find.the room did smell though.  and parking could be an issue at times.  The toilet got blocked and when i told the manager about it, they fixed the issue, but he told me how to use a toilet properly... i guess i have been doing it wrong the last 40 years...he was a little rude to me, but when my wife was there, he was friendly to her...the bins outside were changed everyday and the place itself was well maintained.  it was in a good location, near resturants, a good theme park, although we never went, and also some good retail shops.  out of the 5 hotlets that we stayed in while we were on holidays, this was the second worse, but only becuas the others were good.would recommend to other familes becasue it is, overall and good little findMore</t>
   </si>
   <si>
+    <t>Undefined</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r423036394-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>So as a young rollercoaster enthusiast I was here for Knotts, this place is just across the road pretty much from the water park and a block from the main theme park. Buena Park is very nice as an area and this place is easily walkable to all the sights, restaurants and mall etc. The rooms were clean, they let me leave my bag at 6am before I went to Knotts (and it was a large bag!), laundry is being your own powder but is good, people in the area seemed fine, I would say it's 3 stars, not flash, kind of dated in decor but clean and useable. The area is pricey so it's okay value considering. Would recommend for a bed/pop in and out kind of place. More</t>
   </si>
   <si>
+    <t>db0wman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r391899416-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>TravelGuam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r377770133-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Located in a quite back road of the main Buena Park highway, the Inn was quite comfortable.  It is an old place and needs to be upgraded.  The rooms were not flawless, if anything it was very worn, but we were not in the room for very long.  It was a place to relax during the evening after a full day of adventure.  Located in the middle of several attractions like Knotts Berry Farm, Soak City, Downtown Buena Park Mall, Wal-Mart, Neighborhood Wal-Mart, and Target.  Also enjoy some of the restaurants within the area.More</t>
   </si>
   <si>
+    <t>Paul W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r342647961-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>We stayed 2 nights here. It is a 10 minute walk to Knott's Berry Farm (5 minutes to their parking lot). They had a room that had 3 queens beds so our family of 6 could stay in 1 room. Nothing fancy. Nothing bad either. Pretty uneventful stay. I would for sure stay here again!!!More</t>
   </si>
   <si>
+    <t>TravelerWithDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r309101598-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Linda Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r286464216-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>The area is nice, seems safe enough, which can be hard for low cost hotels in LA area. But that is about where the good stops. While there were no bugs in our room at least, the beds are uncomfortable, the shower had mildew and broken plumbing, the smell was musty, the electrical is DANGEROUS (ran form the lamps hanging on the wall behind the wall then plugged in to old outlets) and we had 3 outlets spark or quit working on us! I was afraid to use the microwave because the ground part of the plug had been cut off, and the refrigerator froze everything, both in and out of the freezer area. For a Wyndham property, I expected much better than what I got. When I asked for extra wash clothes for our room, they kept trying to give me towels, as if they had no idea what a wash cloth was! 5 times!More</t>
   </si>
   <si>
+    <t>Katrina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r280516488-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>This stay taught me the value in sticking to known chains, pictures can be very deceiving.  Half a step up from sleeping in the car.  I don't believe they vacuume. Found a huge tuft of hair on the floor by the trash can. Ad claimed they had a pool.  The pool was not working, they said the pump had gone out that morning.  There was a padlock on it and no card read - obviously not open in a long time.  Old, dirty and our room key didn't work.  After 4 trips to the front desk, they finally gave us the pass key to all of the rooms so that we could get our 4 and 5 year old grandsons into the room after all day and night at Knotts.  Use La Quinta or Holiday Inn, not worth the savings.More</t>
   </si>
   <si>
+    <t>Niki B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r267806747-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -433,6 +472,9 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>SunnyJoy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r262354489-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
@@ -460,6 +502,9 @@
 I had plans all three evenings that I was staying there, when I checked...Well first and foremost, I want to be brutally honest....  Pulling up to the property, it looked tidy enough, the clerk at the front desk let me check in a couple of hours early so of course that made me happy and I asked for an upper level room because I LOATHE the sound of stomping above me!  So he gave me room #221, the very end room on the top facing the parking lot.  There is no elevator, which is okay....but as I headed to the staircase i was a little taken aback by the condition of the walkways and staircase!  It was filthy!  It could really use some power washing!  The room itself was small, dingy, dark, one double bed, everything super OLD!  I was a little mortified but I had to remind myself that I booked it for 3 days at $32/night on Priceline, which is quite a deal for ANY hotel!So I did what I first do at any hotel, cranked the AC on high to air it out!  The AC worked GREAT!  After turning on all the lights on further inspection the room was tidy and clean...yes things were old, was there mold?  Most likely...the only thing that I did find pretty gross was the carpet...I would recommend wearing BLACK socks or shoes on the carpet because it WAS gnarly!I had plans all three evenings that I was staying there, when I checked in the parking lot was empty but when I came back it was packed!  Thank goodness there was a couple of empty spots!  With so many people, I was worried that there would be a high noise level.  I ALWAYS travel with a box fan when driving, because it is impossible for me to sleep without a fan!  With the fan, I was pleasantly surprised on how quiet it was!  I feel like the walls in this motel are pretty thick because it was a full house and i could hear NOTHING!  Of course I did have the AC and a box fan going, but in most motels, even with the added noise, I can STILL hear outside noise!  But it was very peaceful!NO free breakfast, but there is hot coffee and tea in the office....not the best coffee but better than nothing!  Right down the street is a Neighborhood Walmart store...perfect for any of your food, medicine and miscellaneous needs...there is plenty of fast food places as well.My daughter was cheering at a cheer comp at the Anaheim Convention Center, the Knight's Inn is quite a hike from the convention center but totally easy, just 2 streets...LONG streets but only 2 streets to deal with!  And NO screaming cheerleaders!  I don't know if I would recommend this hotel to your average Disneyland visitor, I think they would be disappointed by the distance away from Disney but it is very close to Knott's Berry Farm and Medieval Times.I personally would stay here again...the good outweighed the bad!  Once you get past the room and realize how peaceful it is and that the only reason you are in the room is to sleep, you should be fine!  Plus it had a microwave and fridge.  The pool did not look very inviting, I did not swim...it looked clean, just TINY!  Old TV but LOTS of channels!  I couldn't get over how many channels were available!  Oh and even though I did bring my own blankets and pillows, I did pull the bedding back and I did NOT see any evidence of bedbugs, so that was a relief! So if you get this at a great deal and older furnishings aren't a big deal, then go for it, but don't expect the Ritz!  Just a quiet place to lay your head!More</t>
   </si>
   <si>
+    <t>RoVaughn61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r259144454-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -475,6 +520,9 @@
     <t>This place was dark, creepy and EXTREMLEY DIRTY! We booked online and when we got there decided to look at the room before we got anything out of the car and glad we did. Holes in walls, DIRTY furniture with stains on furniture and carpet. Then pulled covers back on the bed and there were 3 bugs in the bed. We ask to cancel and get a refund. That was a BATTLE!! Oh outside lights weren't on and only one light in the room worked. JUST DONT STAY HERE!!!</t>
   </si>
   <si>
+    <t>JohnAndJackMyBear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r247906553-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -494,6 +542,9 @@
   </si>
   <si>
     <t>The good:  cheap hotel a quick drive from Disneyland, nice people at the front desk.The bad:  Enough was wrong with the room that I was convinced it wouldn't make a difference if I complained.  No cold water in the sink.  Missing dial on heater.  Dim light.  (New) bolt on door wouldn't lock or unlock unless I pushed my entire (155 lbs) weight against it.  My 11 year old wouldn't have been capable of escape by himself.    Fairly uncomfortable bed, but acceptable I guess.  We were in room 102.  The room was sweltering when we entered; I had to ask the front desk to come and change the heat because it was too difficult for me to do without the handle, especially with a little arthritis.  He took out a pair of pliers and adjusted the heat, like this was normal.  I guess they don't trust the guests to do this themselves.  I mentioned the water problem on the way out, perhaps they'll fix it.  We will avoid this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>stephanieh108</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r235555412-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
@@ -527,6 +578,9 @@
 Oh, the shower...BLACK MOLD on the ceiling of the shower. I couldn't handle it so if I had to use the restroom or anything I actually left the property to...Although in a fairly good location close to Knott's, Disneyland and other things, I wouldn't ever stay here again. Upon arriving, the woman at the front desk had an attitude about her. She just seemed to be very annoyed that she even had to be there. Then there is the room...completely disgusting. The first thing I noticed was an obscene word carved into outside of the room's door. How wonderful. Then upon opening the door, the first thing you almost run into is the fridge and microwave. They're wedged in a space between the bed, window and door when there was clearly other space in the room to place them. Also the drapes were hanging down and touching all the coiling and electric elements of the fridge. That was just SCREAMING fire hazard to me. There is also no security lock or deadbolt on the door.The beds were HORRIBLY uncomfortable. They feel like just some springs covered with cloth just for the sake of covering the springs. The towels...well I could have dried off with coarse sand paper and that would have felt softer, I'm sure. I don't know where they get these towels but you can do some serious damage with them if you accidentally rub too hard. Oh, the shower...BLACK MOLD on the ceiling of the shower. I couldn't handle it so if I had to use the restroom or anything I actually left the property to do so. The electric outlets also all had issues where the plugs wouldn't stay in the walls and would fall out. But that didn't stop the property from still using them to plug things in. Oh no. They did it anyway and just let the plugs droop half way out and that was that. I mentioned it to the front desk (only after the guy took a few minutes to stop talking on his cell phone and acknowledge me) and I was only offered an extension cord!!!There were also what seemed to be knife stab holes coming through to the inside of the bathroom. Not sure what happened here but at this point I don't even want to know. I just want to leave. They have it listed that this property is under construction but I think they say that so you don't get upset upon arriving to a trashy hotel...but there was no construction going on whatsoever. They also don't have breakfast of any sort. If you value your health, safety and comfort, please, do yourself a favor and look for a room elsewhere.More</t>
   </si>
   <si>
+    <t>Joe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r234640511-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -542,6 +596,9 @@
     <t>The location is good, the bed was comfortable, and the staff was very helpful, so its too bad the maintenance is so bad.  My toilet seat was broken, and so was the drain stopper in the bath tub.  There must have been a short in the dressing area light switch, because it came on when it wanted to, rather than when I hit the switch.  I am surprised that the management is not aware of these issues.</t>
   </si>
   <si>
+    <t>Ababab1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r234417598-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -557,6 +614,9 @@
     <t>Don't stay at this hotel. It is a good price but very poorly maintained. The shower curtains, sheets and towels had stains and were torn. The room was murky and dirty and there was a horrible smell. The TV did not work at all. There was no parking available. I would not recommend this to anyone.</t>
   </si>
   <si>
+    <t>Rey47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r234041069-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -566,12 +626,18 @@
     <t>10/12/2014</t>
   </si>
   <si>
+    <t>rdrgsaldana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r233997731-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
     <t>233997731</t>
   </si>
   <si>
+    <t>Dan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r231088878-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -587,6 +653,9 @@
     <t>Got a great deal on Priceline. Wanted a close stay to Knotts Berry Farm and you can't get closer than this. Able to park at the motel and walk across to Knotts.  Real basic and could use a remodel but had a quiet clean room with a working TV and a good hot shower with good water pressure. Very helpful front desk staff. This is where I'm staying for any future Buena Park amusement parks.</t>
   </si>
   <si>
+    <t>Tatiana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r229328655-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -599,6 +668,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>orgdoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r228540049-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -608,6 +680,9 @@
     <t>09/12/2014</t>
   </si>
   <si>
+    <t>Frin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r224925993-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -620,6 +695,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Alyssa N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r223235480-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -635,6 +713,9 @@
     <t>I was happy even though it was on the cheaper side for the area it was nice and clean and bigger than expected</t>
   </si>
   <si>
+    <t>michelletn6293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r221819017-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -647,6 +728,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>rushlin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r216501427-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -656,6 +740,9 @@
     <t>07/20/2014</t>
   </si>
   <si>
+    <t>Teri G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r215966170-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -665,6 +752,9 @@
     <t>07/17/2014</t>
   </si>
   <si>
+    <t>Christina A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r215623326-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -680,6 +770,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Yeaman S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r213973724-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -689,6 +782,9 @@
     <t>07/06/2014</t>
   </si>
   <si>
+    <t>Rachel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r213559117-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -701,6 +797,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Angela N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r212947836-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -710,6 +809,9 @@
     <t>06/30/2014</t>
   </si>
   <si>
+    <t>Jose G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r211230627-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -719,6 +821,9 @@
     <t>06/20/2014</t>
   </si>
   <si>
+    <t>Tina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r209481386-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -731,6 +836,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Ihearttraveling01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r208725853-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -746,6 +854,9 @@
     <t>We decided to stay the night at this hotel because it was so close to Knott's Berry Farm, Medieval Times, Pirate's Dinner Adventure etc. The hotel room was large, clean, and in such a great location. The staff was helpful. The prices for the hotel room were fantastic considering it's location. Also, right up the road was a Starbucks so I was content! I would stay again because of the great price and location of the hotel.</t>
   </si>
   <si>
+    <t>Vivienne G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r207805657-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -755,6 +866,9 @@
     <t>05/29/2014</t>
   </si>
   <si>
+    <t>Jaynee C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r205850390-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -764,6 +878,9 @@
     <t>05/16/2014</t>
   </si>
   <si>
+    <t>minimacaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r205449652-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -782,6 +899,9 @@
     <t>The hotel's website seemed okay, the pictures were nice and it claimed to have a pool. Upon arriving from LAX on May 7, 2014 though I was sadly disappointed. The trouble first started with the front desk, who rudely insisted I had not paid up yet (although I had proof in my hands that I had pre-paid for my flight, hotel and rental car thanks to Southwest Vacations). They demanded my credit card, so I was forced to pay an additional $200 (it was later refunded after the manager found that I DID in fact pay, which the front desk agent refused to look for at first). Then we got to the room. It was dark, dingy, and the lock didn't even work. We had to sleep with a chair wedged up against the door, and even that was not enough to make us feel safe. Random room keys were left on our table twice too. At night some rowdy teens were hanging out in the parking lot, sitting on rental cars, being a general nuisance and clearly violating the noise curfew. However, the hotel's attempt to stop them was pitiful. He simply said "Go home" to which the teens just laughed and carried on like he wasn't there. He didn't call the police or even force the issue, which led to barely any sleep. I am never staying here again. It may be affordable, but I will gladly pay...The hotel's website seemed okay, the pictures were nice and it claimed to have a pool. Upon arriving from LAX on May 7, 2014 though I was sadly disappointed. The trouble first started with the front desk, who rudely insisted I had not paid up yet (although I had proof in my hands that I had pre-paid for my flight, hotel and rental car thanks to Southwest Vacations). They demanded my credit card, so I was forced to pay an additional $200 (it was later refunded after the manager found that I DID in fact pay, which the front desk agent refused to look for at first). Then we got to the room. It was dark, dingy, and the lock didn't even work. We had to sleep with a chair wedged up against the door, and even that was not enough to make us feel safe. Random room keys were left on our table twice too. At night some rowdy teens were hanging out in the parking lot, sitting on rental cars, being a general nuisance and clearly violating the noise curfew. However, the hotel's attempt to stop them was pitiful. He simply said "Go home" to which the teens just laughed and carried on like he wasn't there. He didn't call the police or even force the issue, which led to barely any sleep. I am never staying here again. It may be affordable, but I will gladly pay extra for a cleaner, nicer hotel.More</t>
   </si>
   <si>
+    <t>Vivian A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r199202766-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -800,6 +920,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Joshua H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r198854349-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -809,6 +932,9 @@
     <t>03/26/2014</t>
   </si>
   <si>
+    <t>Leanna P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r198023593-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -827,6 +953,9 @@
     <t>Stayed here for two nights for a disneyland trip in a 2 queen bedroom. Room was clean with a TV, microwave and mini fridge. However, the room was a little cramped around the table/fridge area for 3 people. There was also no clock that's usually provided on the nightstand but we didn't mind. I was woken up one of the nights at almost 3am to the sound of some serious yelling and arguing between what sounded like drunk men and noisy speeding cars (there is a hookah lounge across the street.) That would probably be my only complaint of our stay here. Other than that, the drive to disneyland is not bad at all and it's worth the stay if you are not high maintenance and on a budget. More</t>
   </si>
   <si>
+    <t>higonzilla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r182891432-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -854,6 +983,9 @@
     <t>We stayed in the family suite the Friday before Halloween.  Walking distance to Knotts Berry Farms.  Suite had 3 beds in two rooms separated by a wall not a door. Gave plenty of privacy. Clean linen and very comfortable beds.  Small fridge in the room.  Friday night was $120 plus $5 for parking. The charge for the parking was the only negative, but otherwise a nice stay. Staff was friendly.  No breakfast in the morning, but nice hot coffee.  We will be going back for sure.More</t>
   </si>
   <si>
+    <t>Lisa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r178735730-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -875,6 +1007,9 @@
     <t>We stayed here for a little over a week in September. The room was clean, it wasn't cramped, it had a fridge, and a microwave. There were three of us (all adults), we found it to be comfortable. We did not spend much time in the room except for at night, its within 8 minutes of Disney, within 20 minutes of several beaches, almost right next to medieval times dinner... all in all we would stay here again. I did not care for their pool (its very tiny), but we never used it anyway in favor of the beach. Great value for someplace to sleep while enjoying a vacation in California.More</t>
   </si>
   <si>
+    <t>couponing4bmx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r173150232-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -902,6 +1037,9 @@
     <t>I certainly don't like to pick this hotel because every time we checked in at night for this hotel the night auditor/attendant is very rude and insanely not fit for hospitality industry. Priceline bidding end up to this disgusting hotel although its cheap, I would pay a little extra to be treated right. He was mad because there will be 2 adults and whatsoever so when my husband drop me off to go to the room and head out to walmart he stands in the middle of the street and wouldn't move as if he owns the freaking country. We have stayed here about 6x now and I can't go back there anymore. Im scared for that guy, very rude, creepy and suspicious. Plus internet sucks all the time and best of all there was a MOLD in our bathroom. We found out later on Sunday before checking out and that explains to our eye infection and bugs in bed too...Don't stay here. I always travel and always give benefit of a doubt and try to see if reviews are wrong...this one top the worst hotel awardMore</t>
   </si>
   <si>
+    <t>jim m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r164102722-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -929,6 +1067,9 @@
     <t>We stayed here for 8 nights as we always do been staying here about 10 years now and the manager Tania is lovely she always makes us welcome and I find the room rate excellent for the area its in. Its very close to knots berry farm so you don't need to take your car you just walk across the road about 5 minutes walk it costs $15 to park your car so you are on a winner if you walk. Also very handy for all other entertainments in Buena Park I wouldn't stay anywhere else for the money you wont beat this place. The rooms are nice nothing flash but real comfortable and its quiet. I will definitely keep coming back to Knights in on Stanton you also get a free coffee service and continental breakfast although we don't have it as we love to have a fully cooked breakfast at dennysMore</t>
   </si>
   <si>
+    <t>shetak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r162694654-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -942,6 +1083,9 @@
   </si>
   <si>
     <t>this hotel is probably the worst hotel I stayed at. first off you have to pay for parking there is not enough available spaces for your car then the front desk clerk will ask you to park on the road or empty lot behind the hotel.  They said they can't guarantee that your car will be safe. If your car gets damaged in the parking lot they will not pay for any damages. Refuses to accomadate guests. The clerk was rude and dissresptful. Don't ever go to this place</t>
+  </si>
+  <si>
+    <t>Colbie C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r158625131-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
@@ -975,6 +1119,9 @@
 Tried to call Hotwire to receive a refund a couple days later after our vacation because the manager said he couldn't help me with that at the hotel because we booked through a 3rd party. Hotwire called the hotel and the hotel said that we had stayed in the room all night and reported nothing about bugs. Lies!!! Hotwire said they would not give me a refund because they could not confirm what the condition of the room was. I asked them how am I suppose to prove there were bugs and unfit conditions. I don't have controls to put notes in the hotels system. I told Hotwire customer service that I had a receipt for the time we left and duration of stay but that didn't matter to them because it couldn't...Booked a room (RM#122) from Hotwire for 4/20/13. Bad mistake.My wife and I got into our room late after spending the day at Disneyland and there were small bugs everywhere. On the beds, on the floor, and all over the bathroom. It was a no brainer, we left so fast. We could not take the bugs crawling on us and everything in there. Told the manager at the front desk and he didn't seem to care much and he also did not offer us a different room so we left to stay at a hotel down the street that we had stayed in the week before. Tried to call Hotwire to receive a refund a couple days later after our vacation because the manager said he couldn't help me with that at the hotel because we booked through a 3rd party. Hotwire called the hotel and the hotel said that we had stayed in the room all night and reported nothing about bugs. Lies!!! Hotwire said they would not give me a refund because they could not confirm what the condition of the room was. I asked them how am I suppose to prove there were bugs and unfit conditions. I don't have controls to put notes in the hotels system. I told Hotwire customer service that I had a receipt for the time we left and duration of stay but that didn't matter to them because it couldn't prove anything. I'm not one to write reviews or complain but I had to tell people about this one. Hotwire is a dishonest company and I will never use them again. I hope this helps everyone out there looking for a place to stay or what companies to trust.More</t>
   </si>
   <si>
+    <t>jackaloape</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r155856488-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -999,6 +1146,9 @@
     <t>To start you get the enjoyment of paying an extra $5 fee per day for your car or it will get towed. Then you get to pay $6 hotel fee? Then in the room you get extra friends to stay with you in the bed on the carpet and the walls. Then when you ask for more towels or should i say rags they want to charge extra for them. It was close to the park but you get to see working girls getting extra cash in the parkinglot on the way to the park. Also we had to change rooms the first one had the door to the fridge and the plug came out and i mean the the socket with electrical burns.then and not leasr you have the drug dealers in the parking lot. O ps no breakfast and no coffee  makers in the room. I will never stay at a knights inn again.More</t>
   </si>
   <si>
+    <t>Emmie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r149767056-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1020,6 +1170,9 @@
     <t>This is literally the WORST hotel experience I have ever had in my life.We stayed here in September to stay after a trip to Knott's Berry Farm. There were many of us, and the employee told us over the phone that we were being given their "biggest room" which had two beds and a fold-out couch. This was a blatant lie.We got to the hotel and there was no couch. As a result, two of us had to sleep on the floor.The "complimentary breakfast" consists of a box of donuts that sit overnight in the lobby that the employees eat.In the morning, when I went to take a shower, the water coming out of the shower was brown. I called the front desk and they said they would send someone over to fix it. I asked if I could use a neighboring shower, and was denied. When the employee came hours later, it was check-out time. We were all dirty, unclean, and miserable.We were refused a full refund. Please, pay a little more and avoid this place like the plague.More</t>
   </si>
   <si>
+    <t>rlbglenn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r148915031-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1041,6 +1194,9 @@
     <t>The room was clean, clean sheets, clean bathroom. The bathroom could use a little updating. The bed was pretty decent to sleep on. We were on the bottom floor, so could hear people walking above us and could hear the shower water being turned on and off from the above room. The  tv, fridge, microwave all in good working order.We did have a little trouble with the door unlocking and not being able to lock it, but was able to fix it on our own. They could do a little better on the continental breakfast as they served bakery style doughnuts and coffee in the main office. Super close to Knott's Berry Farm, Medevial Times, and the Pirate dinner show. Our trip was actually to Disneyland which was only 7 miles down the freeeway. Super easy to get to and from from this hotel. We saved $150 by staying here as opposed to staying at a hotel near Disneyland. I would def stay here again if they keep their prices as low as they were!!!  (:More</t>
   </si>
   <si>
+    <t>Natasha S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r141375558-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1053,6 +1209,9 @@
     <t>This hotel was in the center of so Cal and was across the street from knotts berry farm. The rooms were kept clean and they had a microwave and refrigerator in it. Front desk staff was also friendly and helpfull. We didn't use the pool but looked clean. I would reccomend this hotel to people who want to get some good rest but not pay and arm for a hotel.</t>
   </si>
   <si>
+    <t>PGLSATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r141193921-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1074,6 +1233,9 @@
     <t>This hotel is not for you if you enjoy luxury. It is dark and dingy, although they did have clean sheets and lots of clean towels. We only slept and showered here since we were out since the crack of dawn til very late at night. They did have donuts for breakfast in the office. They do have a pool. Great location near restaurants, Walmart, and a theme park. About 30 minutes to the beach with all the traffic lights. I would not recommend if you will be staying in your room all day, but if you are going to be out alot and dont mind budget hotels then I would.More</t>
   </si>
   <si>
+    <t>Tracy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r132628015-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1095,6 +1257,9 @@
     <t>The hotel is worn down and needs some serious maintenance to bring it to the level of appearance where I would feel comfortable suggesting that someone I know stay here in the future. The room was clean but because it was worn down it gave off a grungy appearance. There were broken park benches in front of the rooms and the soda machine was empty for the two days I stayed there. The room lacked basic amenities like an alarm clock and an iron. I did ask at the front desk for an iron and they went and bought me one. That was really nice but I ended up having to iron on the desk. The hotel says they offered free breakfast but placing a box of doughnuts on a counter does not qualify as offering a free breakfast. I was very disappointed by this. Overall, the room was cheap ($50) for this area but in this case, you do get what you paid for.More</t>
   </si>
   <si>
+    <t>tebbs1220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r126118198-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1116,6 +1281,9 @@
     <t>I read the reviews and was thinking this was more or less a simple hotel &amp; a place to sleep.... Well honestly it was a place to sleep but it was horrioble.  We arrived &amp; checked in the lady didn't really say anything to me at check in, customer service was seriously lacking, but I thought well ok. Then we went into the room, the decor is older &amp; very simple- Thats fine, what wasn't ok was that all the windows were cracked open along the hotel- This isn't the safest part of town, you drive out of the disneyland area into a more run down part of town.,  Anyway once we walked in I realized why. The rooms were all muggy &amp; musty smelling. They were humid to the point my hair went flat! I wasn't about to sleep with both windows unlocked so I closed them &amp; turned on the air, the thermostat wasn't working well so I would have to get up through out the night to turn off the air, It was appx 50 degree's outside so the air wasn't to keep us cool, but to get the musty smell and humidity out of the room. The carpet is sticky feeling, probably from the humidity...The beds were hard and uncomfortable. We did have 3 beds, which was nice since we are a family of 5 staying there. It did have a microwave &amp; mini fridge. We...I read the reviews and was thinking this was more or less a simple hotel &amp; a place to sleep.... Well honestly it was a place to sleep but it was horrioble.  We arrived &amp; checked in the lady didn't really say anything to me at check in, customer service was seriously lacking, but I thought well ok. Then we went into the room, the decor is older &amp; very simple- Thats fine, what wasn't ok was that all the windows were cracked open along the hotel- This isn't the safest part of town, you drive out of the disneyland area into a more run down part of town.,  Anyway once we walked in I realized why. The rooms were all muggy &amp; musty smelling. They were humid to the point my hair went flat! I wasn't about to sleep with both windows unlocked so I closed them &amp; turned on the air, the thermostat wasn't working well so I would have to get up through out the night to turn off the air, It was appx 50 degree's outside so the air wasn't to keep us cool, but to get the musty smell and humidity out of the room. The carpet is sticky feeling, probably from the humidity...The beds were hard and uncomfortable. We did have 3 beds, which was nice since we are a family of 5 staying there. It did have a microwave &amp; mini fridge. We have stayed at days inn hotels in the past &amp; they have always been very clean &amp; simple. This place is a dump! We were in a non-smoking room, but there was a bench outside that people would come &amp; sit on &amp; then smoke, so when the window was open smoke was coming in. Pros: It has beds, microwave &amp; fridge.. Cons: Breakfast doesn't start until 7am, so if you are going to Disney for opening time, you won't get breakfast. Breakfast was donuts &amp; corn flakes &amp; fruit loops &amp; toast. Coffee. No juice or even water, no fruit, no muffins ... etc.. This is a very basic hotel. 10-15 minute drive disneyland depending on traffic, a lot closer to Knott'sBerry Farm. Really if I had not already prepaid the non-refundable rate I would not have stayed. I paid almost $75 per night- That was highway robbery for what we got!More</t>
   </si>
   <si>
+    <t>k F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r126056193-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1137,6 +1305,9 @@
     <t>A big sign out front says "Weekly Rates" Which should have been our first clue to stay away. The people seemed nice but kind of oblivious to how run down and nasty this place is. The photo which shows the lobby with those awesome curtains. There is food way up high on the curtains don't ask me how it go there. The room was fairly clean and our beds were clean and I give them a 5 to a 6 for comfort. People were sitting like in lawn chairs out front of the downstairs units. We were upstairs and the tiles were cracking on the floor and falling apart. The maid forgot to clean our room one day so I called the front desk to ask for more hand towels and wash cloths and they said "Sorry, all we have is large bath towels" Are you Kidding me!! The next morning I told the manager that we were leaving for the day and I hope the maid cleans out room and gives us fresh towels. She was shocked. She didn't even know I had called about towels and already reported this. Its about 7 miles to disneyland. Also we came home from disney one night and all the upstairs room doors were open except ours so as we pass by and look in we see they have shampooed all the carpets and were letting the rooms dry out. The breakfast...A big sign out front says "Weekly Rates" Which should have been our first clue to stay away. The people seemed nice but kind of oblivious to how run down and nasty this place is. The photo which shows the lobby with those awesome curtains. There is food way up high on the curtains don't ask me how it go there. The room was fairly clean and our beds were clean and I give them a 5 to a 6 for comfort. People were sitting like in lawn chairs out front of the downstairs units. We were upstairs and the tiles were cracking on the floor and falling apart. The maid forgot to clean our room one day so I called the front desk to ask for more hand towels and wash cloths and they said "Sorry, all we have is large bath towels" Are you Kidding me!! The next morning I told the manager that we were leaving for the day and I hope the maid cleans out room and gives us fresh towels. She was shocked. She didn't even know I had called about towels and already reported this. Its about 7 miles to disneyland. Also we came home from disney one night and all the upstairs room doors were open except ours so as we pass by and look in we see they have shampooed all the carpets and were letting the rooms dry out. The breakfast consisted of cold cereal, coffee, donuts and bread to toast. MY husband says you get what you pay for. We won't be back. The motel up the street has a big sign that says "Drug and Alcohol Free Motel Rooms" That concerns me when you have to announce that. I felt it was in a rougher part of town.More</t>
   </si>
   <si>
+    <t>Jahmok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r120766076-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1155,6 +1326,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r119404403-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1173,6 +1347,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>darren022</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r118638902-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1191,6 +1368,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Jul1910</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r118209686-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1209,6 +1389,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>RoyaltyC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r116453550-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1227,6 +1410,9 @@
     <t>Check in was relatively slow even though we were the only party there.  We appreciated that they let us checked in before 3 pm.  Our two rooms were spacious and on the second floor.  There was no elevator.  The beds were clean.  The furniture was tired however.  AC was great for the hot summer days.  There was a microwave in each room.  Good thing I brought my own towel because the towels I got for 3 out of 7 days did not pass my inspection: first day there were quite a few red stains, second day there was a few yellow stains and last day towel was so thin with black threads/stuff on it.  It is two blocks from a walgreens and within walking distance to Knotts' Berry Farm and its eating establishments.  The Buena Park mall was within walking distance maybe 20 minutes.  The staff was helpful in phoning taxi and assisting with figuring out the remote control.  $25 taxi drive to Disneyland.More</t>
   </si>
   <si>
+    <t>rockettfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r116069894-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1242,6 +1428,9 @@
     <t>This hotel was a nice place to stay for a night. Clean, nice staff, has sink separate from bathroom (great for us because we were two couples staying together). Unfortunately they only gave us 3 towels for 4 people and r in need of serious updating.</t>
   </si>
   <si>
+    <t>eli09Ca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r115290213-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1260,6 +1449,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>aela100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r36823254-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1281,6 +1473,9 @@
     <t>This facility is average if you need just sleep the rooms are okay... problem is this is a MOTEL your own door so forth therefore if you are traveling with kids this might make some fearful.  The carpeting is a deep dark green shag clean enough if you leave your shoes on.  Bed okay just pull back the bedspread whatever you do.... bathroom actually clean and new refreshing.  So bottom line here is if you need a cheap place to sleep book it if you are looking for anything beyond that stay away from this one.  They say they have a pool and complementary breakfast dont know we left early... there were 3 tables crammed into the tiny tiny MOTEL type of check in... I guess that is where they serve... the pool was outside size of a hottub a chair or two and by the trash containers in the rear of the property... like I said to sleep only ... okay anything more skip it.More</t>
   </si>
   <si>
+    <t>bdfmly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r34907095-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1302,6 +1497,9 @@
     <t>We stayed here for one night during our trip to Knotts Berry Farm. I'm believe that this hotel may have had been recently renovated. Check in went well and the clerk was helpful. The carpet felt plush and was free of stains, the beds were comfortable and the room's appearance overall was warm and inviting. There was even crown molding throughout the room. The bathroom also looked newly updated. The room came with a fridge, microwave and small coffee pot. Breakfast consisted of donuts, bread, use of a toaster, two cereals that could have been Fruit Loops and Special K. There was your choice of coffee, apple or orange juice. Right across the street was Carrow's Restaurant. The location was fine with me as I knew I would be parking at Knotts although there was only a few choices of a restaurants and it was away from the main area of the attractions. However, for a quite nice sleep I would stay here again.More</t>
   </si>
   <si>
+    <t>beehivegarden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r20888574-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1323,6 +1521,9 @@
     <t>The motel was dated, carpets were filthy, theere were ants everywhere, climbing up the wall into the ceiling. One morning the covered th sink area, disgusting! Plus we had an item stolen from our room. We were in cali to visit disney. My childrens grandma had purchased them all build a bear bears while in downtown Disney. We arrived one night with three bears, the bears never left the room again until we checked out and we checked out with only two! We asked numerous times. And even asked how honest the cleaning crew was! I am so upset that someone would steal a baby's bear!!! I will never stay at this motel or any other Days Inn motels again.More</t>
   </si>
   <si>
+    <t>dadena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r16541951-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1350,6 +1551,9 @@
     <t>This is an older property, but the room was clean (other than a few stains on carpet) and in good condition.  There was a large TV and a refrigerator in the room.  Breakfast was just toast and juice and coffee, and the bread had run out at first, but when I checked back later they had restocked.  I couldn't really complain, though, because the rate for the room was very affordable.  The best thing about the room was that the beds and pillows were very comfortable.  Also, it is a very short walk to Knott's Berry Farm. It is not fancy, but I would certainly stay here again.More</t>
   </si>
   <si>
+    <t>Budgeted-Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r13721582-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1371,6 +1575,9 @@
     <t>Stayed for 1 night 2/18-2/19 for $39 AAA rate before taxes. Stayed in room 226 second floor facing an empty parking lot.  Room was 2 Queen size bed with fridge, microwave, and 2 electric grill burners with a sink.  Decor in room was a little old and run down but decent and clean.  Carpet was kind of dirty with stain but wasn't bad.  Bathroom was clean but had a slippery tub and loud fan.  Bed:  Very Firm bedding and clean pillows, but I recommend to bring your own blankets as the provided "blanket" was uncomfortable and kinda dirty.  Bed sheets look old.TV:  Watchable but also not too many channels.  A few channels were kind of fuzzy but otherwise ok.  Use the remote and menu settings to change the channel versions with auto programming because sometimes people will play with the channel settings that will delete some channels. Staff:  Friendly but not very resourceful.  Bring a GPS system if u can.Location:  Only 1 block from Kotts Berry farm and the waterpark.  2 Blocks from the downtown mall.   Lots of restaurant and stores around   10 min. Drive to DisneylandMore</t>
   </si>
   <si>
+    <t>NY11373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r11127210-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1389,6 +1596,9 @@
     <t>November 2006</t>
   </si>
   <si>
+    <t>GreatNorthTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r5602323-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1410,6 +1620,9 @@
     <t>Room is what you would expect for $56.00 USD in Buena Park / Anaheim area.Clean room, microwave, small fridge and king size bed.  Small pool but with only 3 or 4 chairs available it was not user friendly.  Great location and a 5 minute walk to Knotts Berry Farm and the same to Knotts Water Park.  It is located on Stanton Avenue but you can call it Beach Blvd.  Easy to find and close to everything.  Room was made up almost everymorning as we left for breakfast at 8 AM and cleaned when we returned from eating.Hotel lobby limited, but there is coffee and doughnuts available for guests in the morning.More</t>
   </si>
   <si>
+    <t>jlhrda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r5550255-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1423,6 +1636,9 @@
   </si>
   <si>
     <t>I would not recommend this establishment for anyone. the lobby smelled of urine.  The general upkeep was poor, the whole place needed paint and carpet cleaning. My room had so many issues: a non-working T.V. being stored there, a toilet that repeatedly refused to flush  and a fist-sized hole in the wall stuffed with kleenex to name a few.  The hall way and the back parking lot were used as storage or perhaps a dumping ground for discarded furniture and mattresses. An unpleasant experience to say the least.</t>
+  </si>
+  <si>
+    <t>MrsKelli</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d76221-r2843813-Knights_Inn_Buena_Park_Anaheim-Buena_Park_California.html</t>
@@ -1942,43 +2158,47 @@
       <c r="A2" t="n">
         <v>1931</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1992,50 +2212,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1931</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2053,50 +2277,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1931</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2110,50 +2338,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1931</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2167,50 +2399,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1931</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2228,50 +2464,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1931</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2285,50 +2525,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1931</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2348,41 +2592,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1931</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -2399,56 +2647,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1931</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2464,56 +2716,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
         <v>109</v>
       </c>
-      <c r="X10" t="s">
-        <v>101</v>
-      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1931</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2533,50 +2789,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1931</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2596,50 +2856,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1931</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2659,50 +2923,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1931</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2720,50 +2988,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1931</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2781,41 +3053,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1931</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -2844,50 +3120,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1931</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2907,50 +3187,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1931</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2968,50 +3252,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1931</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3031,50 +3319,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1931</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3092,35 +3384,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1931</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3128,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3152,36 +3448,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1931</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3189,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3213,42 +3510,43 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1931</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -3277,35 +3575,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1931</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3313,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3337,36 +3639,37 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1931</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3374,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3398,36 +3701,37 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1931</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3435,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3459,51 +3763,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1931</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3527,35 +3832,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1931</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3563,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3587,36 +3896,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1931</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3624,10 +3934,10 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3648,36 +3958,37 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1931</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3685,10 +3996,10 @@
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3709,49 +4020,50 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1931</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3775,35 +4087,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1931</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="J32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3811,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3835,36 +4151,37 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1931</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3872,10 +4189,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3896,36 +4213,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1931</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3933,10 +4251,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3957,36 +4275,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1931</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3994,10 +4313,10 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4018,36 +4337,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1931</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>263</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4055,10 +4375,10 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4079,51 +4399,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1931</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4147,35 +4468,39 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1931</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4183,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4207,49 +4532,50 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1931</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>278</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4273,50 +4599,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1931</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>282</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="K40" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4340,50 +4670,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1931</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>289</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4407,35 +4741,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1931</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>296</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4443,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4467,51 +4805,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1931</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4525,50 +4864,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1931</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4590,56 +4933,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="X44" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="Y44" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1931</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="J45" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4661,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="X45" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="Y45" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1931</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>325</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="J46" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="K46" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4732,56 +5083,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="X46" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Y46" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1931</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>335</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4803,47 +5158,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="X47" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1931</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>345</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="J48" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="K48" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -4872,50 +5231,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1931</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>351</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="J49" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4927,47 +5290,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="X49" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="Y49" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1931</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>361</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="J50" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -4994,56 +5361,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="Y50" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1931</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>370</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="J51" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5067,50 +5438,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1931</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>378</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="J52" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="K52" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5132,41 +5507,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>1931</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>386</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="J53" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5185,50 +5564,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1931</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>391</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="J54" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="K54" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5252,50 +5635,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>1931</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>399</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="J55" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5319,50 +5706,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1931</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>407</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="J56" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="K56" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5386,50 +5777,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>1931</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="J57" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="K57" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5453,50 +5848,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1931</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>423</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="J58" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="K58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="O58" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5520,50 +5919,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>1931</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>430</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="J59" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="O59" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5587,50 +5990,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1931</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>437</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="J60" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5654,50 +6061,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>1931</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>444</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="J61" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="K61" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="L61" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5719,50 +6130,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>1931</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>451</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="J62" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="K62" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="L62" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -5782,41 +6197,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>1931</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>458</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="J63" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="K63" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="L63" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -5845,50 +6264,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1931</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>464</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="J64" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="K64" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -5908,50 +6331,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1931</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>471</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="J65" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="K65" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="L65" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -5965,50 +6392,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>1931</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>479</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="J66" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="K66" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="L66" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6032,50 +6463,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1931</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>487</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="J67" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="K67" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="L67" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6099,50 +6534,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>1931</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>495</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="J68" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="K68" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="L68" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6162,56 +6601,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="X68" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="Y68" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>1931</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>505</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="J69" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="K69" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="L69" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="O69" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6235,50 +6678,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>1931</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>513</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="J70" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="K70" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="L70" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="O70" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6302,50 +6749,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>1931</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>520</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="J71" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="K71" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="L71" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6369,41 +6820,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>1931</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>528</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="J72" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="K72" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="L72" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
@@ -6422,41 +6877,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>1931</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>534</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="J73" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="K73" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="L73" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -6475,7 +6934,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
